--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,228 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>658700</v>
+      </c>
+      <c r="F8" s="3">
         <v>739700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>801600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>623900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>742700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>754400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>764200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>647300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>653700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>716400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>715400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>665400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>587900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>352600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>540500</v>
+      </c>
+      <c r="F9" s="3">
         <v>536900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>578800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>463200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>547400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>535500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>548300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>471500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>476700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>494200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>502100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>476600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>431000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F10" s="3">
         <v>202800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>222800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>160700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>195300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>218900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>215900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>175800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>177000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>222200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>213300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>188800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>156900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +903,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +949,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,52 +999,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>16400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>10600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>6600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>551400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>634400</v>
+      </c>
+      <c r="F17" s="3">
         <v>621800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>687500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>591200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>664500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>626700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>643200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>570900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>591700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>591500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>594300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>572400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>518000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-92300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F18" s="3">
         <v>117900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>114100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>32700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>78200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>127700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>121000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>76400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>62000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>124900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>121100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>93000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>69900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>57300</v>
+      </c>
+      <c r="F21" s="3">
         <v>155400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>155800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>71400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>114500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>203900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>119500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>117000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>101600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>163600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>159800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>131200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E22" s="3">
-        <v>8200</v>
+        <v>9600</v>
       </c>
       <c r="F22" s="3">
         <v>7700</v>
       </c>
       <c r="G22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F23" s="3">
         <v>108000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>103500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>69500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>118500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>113000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>71100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>56100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>118900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>113500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>88300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>64000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-10300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F26" s="3">
         <v>104900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>99700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>22700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>59600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>114300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>109000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>67900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>54900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>116100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>107700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>83500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>74300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F27" s="3">
         <v>104900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>99700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>59600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>114300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>109000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>67900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>54900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>116100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>107700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>83500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>74300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F33" s="3">
         <v>104900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>99700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>59600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>114300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>109000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>67900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>54900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>116100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>107700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>83500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>74300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F35" s="3">
         <v>104900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>99700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>59600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>114300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>109000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>67900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>54900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>116100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>107700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>83500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>74300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,289 +2135,327 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>505100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F41" s="3">
         <v>55800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>50600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>81000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>46700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>52000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>41400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>51500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>52800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>47200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>46800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>58000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>38200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F42" s="3">
         <v>40900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>40200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>42900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>39800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>38800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>38400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>31300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>29900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>30600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>27200</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>320900</v>
+      </c>
+      <c r="F43" s="3">
         <v>529900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>511900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>396600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>318800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>404000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>388000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>353500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>247300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>359600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>364600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>357900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>277700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1188200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1052100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1046500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1008500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1008300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>940000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>973900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>969700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>988600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>945700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>939400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>922700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>948200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>954900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>33400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>33100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>37600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>57700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>49200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>37000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>32100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>34600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>34100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>72200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>69700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2103800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1514200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1701800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1644600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1561900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1382900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1526400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1486700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1461800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1307900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1411500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1395400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1436300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1340500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3">
         <v>3300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2254,11 +2463,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2272,96 +2481,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1061500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1068500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1076300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1068300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1046800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>990500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1016400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1017600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1024300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1035800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1038500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1052300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1068700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1076900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>511500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>611700</v>
+      </c>
+      <c r="F49" s="3">
         <v>612200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>614400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>616400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>620900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>623800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>627900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>622800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>628200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>632600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>634500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>637800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>556300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>16400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3694900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3211100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3398000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3337800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3239700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3004600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3175000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3141800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3117900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2980700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3090400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3090400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3152300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2990100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,69 +2875,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>291300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>395600</v>
+      </c>
+      <c r="F57" s="3">
         <v>377200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>351600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>299500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>332500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>288100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>285700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>255800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>269200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>245700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>245700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>232500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F58" s="3">
         <v>13100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>13300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2686,11 +2953,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2704,184 +2971,214 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F59" s="3">
         <v>17200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>389100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>422400</v>
+      </c>
+      <c r="F60" s="3">
         <v>407600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>379500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>317600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>347000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>309100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>293800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>289000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>258500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>275100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>251300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>252900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>235900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1622500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>912000</v>
+      </c>
+      <c r="F61" s="3">
         <v>976300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1026700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>959200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>669000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>871000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>900000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>775000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>630000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>705000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>705000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>771000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>600000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F62" s="3">
         <v>51600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>50200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>47400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>52500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>47800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>44400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>42500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>40900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>41000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>38900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>36900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>34600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2052200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1376600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1435400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1456400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1324100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1068500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1227900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1238200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1106500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>929300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1021200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>995200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1060800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>870500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1475800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1755900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1678800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1703700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1740300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1731900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1689700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1807800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1853500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1876200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1898400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1878500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1903500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1642800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1834500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1962600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1881400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1915600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1936100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1947100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1903600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2011400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2051400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2069200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2095200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2091500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2119600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F81" s="3">
         <v>104900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>99700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>59600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>114300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>109000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>67900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>54900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>116100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>107700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>83500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>74300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F83" s="3">
         <v>39700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>44100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>40100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>38000</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>41400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>40400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>41500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>39200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>32600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>262400</v>
+      </c>
+      <c r="F89" s="3">
         <v>124300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>79500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-105200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>274100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>151700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>130300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-17600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>199100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>168500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>179900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>65900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>170600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-36900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-53600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-23800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-31400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-31100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-32900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-17900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-24700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-28900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-37000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-53500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-22900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-33300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-32300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-33600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-32000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-117600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-35800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-27800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-27900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-23100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-23400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-23000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-25100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-20500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-21500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-21300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-21600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-18400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>677900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-233100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-81600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-56300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>163300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-256300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-107900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-107400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>38300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-159500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-136300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-164700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>71200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-156500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-30400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>34300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-11200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>19900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-22200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,241 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>229700</v>
+      </c>
+      <c r="E8" s="3">
         <v>459100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>658700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>739700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>801600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>623900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>742700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>754400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>764200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>647300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>653700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>716400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>715400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>665400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>587900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>378200</v>
+      </c>
+      <c r="E9" s="3">
         <v>352600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>540500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>536900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>578800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>463200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>547400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>535500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>548300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>471500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>476700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>494200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>502100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>476600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>431000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="E10" s="3">
         <v>106500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>202800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>222800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>160700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>195300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>218900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>215900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>175800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>177000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>213300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>188800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>156900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,58 +1022,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>104200</v>
+        <v>22700</v>
       </c>
       <c r="E14" s="3">
+        <v>124900</v>
+      </c>
+      <c r="F14" s="3">
         <v>16000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>465800</v>
+      </c>
+      <c r="E17" s="3">
         <v>551400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>634400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>621800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>687500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>591200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>664500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>626700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>643200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>570900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>591700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>591500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>594300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>572400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>518000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-236100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-92300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>117900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>114100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>127700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>121000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>62000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>124900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>121100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>69900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-198700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-62000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>155400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>155800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>71400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>114500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>203900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>119500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>117000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>163600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>159800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4500</v>
       </c>
       <c r="M22" s="3">
         <v>4500</v>
       </c>
       <c r="N22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O22" s="3">
         <v>4300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-252200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>108000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>103500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>118500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>71100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>113500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>88300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-99300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>104900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>99700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>59600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>114300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>83500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-99300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>104900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>99700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>59600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>114300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>107700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>83500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-99300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>104900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>99700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>59600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>114300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>116100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-99300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>104900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>99700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>59600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>114300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>116100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,328 +2223,347 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E41" s="3">
         <v>505100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E42" s="3">
         <v>34100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>40900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>40200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27200</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E43" s="3">
         <v>344600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>320900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>529900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>511900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>396600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>318800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>404000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>388000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>353500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>247300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>359600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>357900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>277700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1032700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1188200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1052100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1046500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1008500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1008300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>940000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>973900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>969700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>988600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>945700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>939400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>922700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>948200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>954900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E45" s="3">
         <v>31800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>57700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1711100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2103800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1514200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1701800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1644600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1561900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1382900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1526400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1486700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1461800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1307900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1411500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1395400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1436300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1340500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2469,8 +2574,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2487,108 +2592,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1011600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1061500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1068500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1076300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1068300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1046800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>990500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1016400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1017600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1024300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1035800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1038500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1052300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1068700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1076900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>507500</v>
+      </c>
+      <c r="E49" s="3">
         <v>511500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>611700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>612200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>614400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>616400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>620900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>623800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>627900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>622800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>628200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>632600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>634500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>637800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>556300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3251600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3694900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3211100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3398000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3337800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3239700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3004600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3175000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3141800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3117900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3090400</v>
       </c>
       <c r="O54" s="3">
         <v>3090400</v>
       </c>
       <c r="P54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3152300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2990100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,78 +3007,82 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E57" s="3">
         <v>291300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>395600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>377200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>351600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>299500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>332500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>288100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>285700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>255800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>269200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>245700</v>
       </c>
       <c r="P57" s="3">
         <v>245700</v>
       </c>
       <c r="Q57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="R57" s="3">
         <v>232500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E58" s="3">
         <v>15800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2959,8 +3093,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2977,208 +3111,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E59" s="3">
         <v>81900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>361300</v>
+      </c>
+      <c r="E60" s="3">
         <v>389100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>422400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>407600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>379500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>317600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>347000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>309100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>293800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>289000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>258500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>275100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>251300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>252900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>235900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1437600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1622500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>912000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>976300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1026700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>959200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>669000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>871000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>775000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>630000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>705000</v>
       </c>
       <c r="O61" s="3">
         <v>705000</v>
       </c>
       <c r="P61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>771000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E62" s="3">
         <v>40600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1841300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2052200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1376600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1435400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1456400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1324100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1068500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1227900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1238200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1106500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>929300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1021200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>995200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1060800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>870500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1225700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1475800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1628000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1755900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1678800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1703700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1740300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1731900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1689700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1807800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1853500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1876200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1898400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1878500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1903500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1410300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1642800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1834500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1962600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1881400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1915600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1936100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1947100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1903600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2011400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2051400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2069200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2095200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2091500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2119600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-99300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>104900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>99700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>59600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>114300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>116100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E83" s="3">
         <v>30300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>41400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-209400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>262400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>124300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-105200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>274100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>151700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>130300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>199100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>168500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>179900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>170600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-53600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-53500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,58 +4845,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-30600</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-23100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-23400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-216500</v>
+      </c>
+      <c r="E100" s="3">
         <v>677900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-233100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-81600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>163300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-256300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-107900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>38300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-159500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-136300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-164700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>71200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-156500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>400</v>
       </c>
       <c r="P101" s="3">
         <v>400</v>
       </c>
       <c r="Q101" s="3">
+        <v>400</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E102" s="3">
         <v>441000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-22200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,241 +665,254 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>602300</v>
+      </c>
+      <c r="E8" s="3">
         <v>229700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>459100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>658700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>739700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>801600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>623900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>742700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>754400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>764200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>647300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>653700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>716400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>715400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>665400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>587900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>466800</v>
+      </c>
+      <c r="E9" s="3">
         <v>378200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>352600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>540500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>536900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>578800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>463200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>547400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>535500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>548300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>471500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>476700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>494200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>502100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>476600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>431000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-148500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>106500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>202800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>222800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>160700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>195300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>218900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>215900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>175800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>177000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>222200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>213300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>188800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>156900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,61 +1042,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E14" s="3">
         <v>22700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>124900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>533600</v>
+      </c>
+      <c r="E17" s="3">
         <v>465800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>551400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>634400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>621800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>687500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>591200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>664500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>626700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>643200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>570900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>591700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>591500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>594300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>572400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>518000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-236100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-92300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>117900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>114100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>121000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>62000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>124900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>121100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-198700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-62000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>57300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>155400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>155800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>71400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>114500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>203900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>119500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>101600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>163600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>159800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>131200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E22" s="3">
         <v>9500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4500</v>
       </c>
       <c r="N22" s="3">
         <v>4500</v>
       </c>
       <c r="O22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P22" s="3">
         <v>4300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-252200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>108000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>103500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>118500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>113000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>71100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>56100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>88300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-249700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-99300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>104900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>99700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>59600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>54900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>116100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-249700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-99300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>104900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>99700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>59600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>114300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>107700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>74300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-249700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-99300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>104900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>99700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>59600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>116100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>107700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-249700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-99300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>104900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>99700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>59600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>116100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>107700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,349 +2310,368 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E41" s="3">
         <v>465900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>505100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E42" s="3">
         <v>20100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>40900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27200</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E43" s="3">
         <v>160800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>344600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>320900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>529900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>511900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>396600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>318800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>404000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>388000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>353500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>247300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>359600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>364600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>357900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>277700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>938600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1032700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1188200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1052100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1046500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1008500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1008300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>940000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>973900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>969700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>988600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>945700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>939400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>922700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>948200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>954900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E45" s="3">
         <v>31600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1436900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1711100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2103800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1514200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1701800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1644600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1561900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1382900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1526400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1486700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1461800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1307900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1411500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1395400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1436300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1340500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2577,8 +2682,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2595,114 +2700,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>994600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1011600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1061500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1068500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1076300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1068300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1046800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>990500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1016400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1017600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1024300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1035800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1038500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1052300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1068700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1076900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>502900</v>
+      </c>
+      <c r="E49" s="3">
         <v>507500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>511500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>611700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>612200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>614400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>616400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>620900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>623800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>627900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>622800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>628200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>632600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>634500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>637800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>556300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E52" s="3">
         <v>18700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2956100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3251600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3694900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3211100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3398000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3337800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3239700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3004600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3175000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3141800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3117900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3090400</v>
       </c>
       <c r="P54" s="3">
         <v>3090400</v>
       </c>
       <c r="Q54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="R54" s="3">
         <v>3152300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2990100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,84 +3138,88 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>323800</v>
+      </c>
+      <c r="E57" s="3">
         <v>297700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>291300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>395600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>377200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>351600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>299500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>332500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>288100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>285700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>255800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>269200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>245700</v>
       </c>
       <c r="Q57" s="3">
         <v>245700</v>
       </c>
       <c r="R57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="S57" s="3">
         <v>232500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E58" s="3">
         <v>15600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3096,8 +3230,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3114,220 +3248,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E59" s="3">
         <v>48000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>367300</v>
+      </c>
+      <c r="E60" s="3">
         <v>361300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>389100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>422400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>407600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>379500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>317600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>347000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>309100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>293800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>289000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>258500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>275100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>251300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>252900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>235900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1068100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1437600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1622500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>912000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>976300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1026700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>959200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>669000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>871000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>775000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>630000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>705000</v>
       </c>
       <c r="P61" s="3">
         <v>705000</v>
       </c>
       <c r="Q61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="R61" s="3">
         <v>771000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E62" s="3">
         <v>42400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1480600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1841300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2052200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1376600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1435400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1456400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1324100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1068500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1227900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1238200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1106500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>929300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1021200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>995200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1060800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>870500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1225700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1475800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1628000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1755900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1678800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1703700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1740300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1731900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1689700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1807800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1853500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1876200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1898400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1878500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1903500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1475600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1410300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1642800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1834500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1962600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1881400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1915600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1936100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1947100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1903600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2011400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2051400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2069200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2095200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2091500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2119600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-249700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-99300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>104900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>99700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>59600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>116100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>107700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E83" s="3">
         <v>43900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>38000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>41400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E89" s="3">
         <v>181800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-209400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>262400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>124300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-105200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>274100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>151700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>130300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>199100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>168500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>179900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>170600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-53600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-53500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-117600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,61 +5079,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-27200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-23100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-370600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-216500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>677900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-233100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-81600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-56300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>163300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-256300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>38300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-159500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-136300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-164700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>71200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-156500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>400</v>
       </c>
       <c r="Q101" s="3">
         <v>400</v>
       </c>
       <c r="R101" s="3">
+        <v>400</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>441000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,254 +665,267 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>690200</v>
+      </c>
+      <c r="E8" s="3">
         <v>602300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>229700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>459100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>658700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>739700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>801600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>623900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>742700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>754400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>764200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>647300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>653700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>716400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>715400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>665400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>587900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>544200</v>
+      </c>
+      <c r="E9" s="3">
         <v>466800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>378200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>352600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>540500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>536900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>578800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>463200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>547400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>535500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>548300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>471500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>476700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>494200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>502100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>476600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>431000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E10" s="3">
         <v>135500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-148500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>106500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>118200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>202800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>222800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>160700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>195300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>218900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>215900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>175800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>177000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>222200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>213300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>188800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>156900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,64 +1062,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E14" s="3">
         <v>5300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>124900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>611300</v>
+      </c>
+      <c r="E17" s="3">
         <v>533600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>465800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>551400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>634400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>621800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>687500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>591200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>664500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>626700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>643200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>570900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>591700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>591500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>594300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>572400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>518000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E18" s="3">
         <v>68700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-236100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-92300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>117900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>114100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>121000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>62000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>124900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>121100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,288 +1343,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E21" s="3">
         <v>99000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-198700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>57300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>155400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>155800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>71400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>203900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>119500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>101600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>163600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>159800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>8300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4500</v>
       </c>
       <c r="O22" s="3">
         <v>4500</v>
       </c>
       <c r="P22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E23" s="3">
         <v>57300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-252200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>103500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>118500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>71100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>56100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>113500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E26" s="3">
         <v>56400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-249700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-99300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>104900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>99700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>109000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>116100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>83500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>74300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E27" s="3">
         <v>56400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-249700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-99300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>104900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>99700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>114300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>116100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>83500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>74300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,120 +2049,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E33" s="3">
         <v>56400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-249700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-99300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>104900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>99700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>116100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>74300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E35" s="3">
         <v>56400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-249700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-99300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>104900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>99700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>116100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>74300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,370 +2397,389 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>505300</v>
+      </c>
+      <c r="E41" s="3">
         <v>232900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>465900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>505100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>51500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>47200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E42" s="3">
         <v>19900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>42900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>31300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27200</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E43" s="3">
         <v>214500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>160800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>344600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>320900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>529900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>511900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>396600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>318800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>404000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>388000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>353500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>247300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>359600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>364600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>357900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>277700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E44" s="3">
         <v>938600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1032700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1188200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1052100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1046500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1008500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1008300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>940000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>973900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>969700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>988600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>945700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>939400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>922700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>948200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>954900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E45" s="3">
         <v>31100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1544500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1436900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1711100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2103800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1514200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1701800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1644600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1561900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1382900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1526400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1486700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1461800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1307900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1411500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1395400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1436300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1340500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5400</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2685,8 +2790,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2703,120 +2808,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>956200</v>
+      </c>
+      <c r="E48" s="3">
         <v>994600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1011600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1061500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1068500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1076300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1068300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1046800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>990500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1016400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1017600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1024300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1035800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1038500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1052300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1068700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1076900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>496500</v>
+      </c>
+      <c r="E49" s="3">
         <v>502900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>507500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>511500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>611700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>612200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>614400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>616400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>620900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>623800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>627900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>622800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>628200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>632600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>634500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>637800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>556300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E52" s="3">
         <v>19600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3020900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2956100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3251600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3694900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3211100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3398000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3337800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3239700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3004600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3175000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3141800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3117900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3090400</v>
       </c>
       <c r="Q54" s="3">
         <v>3090400</v>
       </c>
       <c r="R54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="S54" s="3">
         <v>3152300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2990100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,90 +3269,94 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>326100</v>
+      </c>
+      <c r="E57" s="3">
         <v>323800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>297700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>291300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>395600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>377200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>351600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>299500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>332500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>288100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>285700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>255800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>269200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>245700</v>
       </c>
       <c r="R57" s="3">
         <v>245700</v>
       </c>
       <c r="S57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="T57" s="3">
         <v>232500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E58" s="3">
         <v>15200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13300</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3233,8 +3367,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3251,232 +3385,247 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E59" s="3">
         <v>28200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>359600</v>
+      </c>
+      <c r="E60" s="3">
         <v>367300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>361300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>389100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>422400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>407600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>379500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>317600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>347000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>309100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>293800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>289000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>258500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>275100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>251300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>252900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>235900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1066600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1068100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1437600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1622500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>912000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>976300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1026700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>959200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>669000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>871000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>775000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>630000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>705000</v>
       </c>
       <c r="Q61" s="3">
         <v>705000</v>
       </c>
       <c r="R61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="S61" s="3">
         <v>771000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>600000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E62" s="3">
         <v>45200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>51600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1462100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1480600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1841300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2052200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1376600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1435400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1456400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1324100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1068500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1227900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1238200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1106500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>929300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1021200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>995200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1060800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>870500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1359100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1282000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1225700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1475800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1628000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1755900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1678800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1703700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1740300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1731900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1689700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1807800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1853500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1876200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1898400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1878500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1903500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1558900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1475600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1410300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1642800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1834500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1962600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1881400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1915600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1936100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1947100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1903600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2011400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2051400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2069200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2095200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2091500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2119600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E81" s="3">
         <v>56400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-249700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-99300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>104900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>99700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>116100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>74300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E83" s="3">
         <v>33400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38000</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>41400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E89" s="3">
         <v>151000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>181800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-209400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>262400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>124300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>79500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-105200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>274100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>130300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>199100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>168500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>179900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>65900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>170600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,64 +5054,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-53600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-37000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-53500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-117600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5089,55 +5323,58 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-30600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-27200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,172 +5547,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-370600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-216500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>677900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-233100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-81600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-56300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>163300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-256300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>38300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-159500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-136300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-164700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>71200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-156500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>400</v>
       </c>
       <c r="R101" s="3">
         <v>400</v>
       </c>
       <c r="S101" s="3">
+        <v>400</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>272300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-233000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>441000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-22200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,279 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>589600</v>
+      </c>
+      <c r="E8" s="3">
         <v>690200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>602300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>229700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>459100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>658700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>739700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>801600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>623900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>742700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>754400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>764200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>647300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>653700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>716400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>715400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>665400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>587900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>425200</v>
+      </c>
+      <c r="E9" s="3">
         <v>544200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>466800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>378200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>352600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>540500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>536900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>578800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>463200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>547400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>535500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>548300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>471500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>476700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>494200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>502100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>476600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>431000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E10" s="3">
         <v>146000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>135500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-148500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>106500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>118200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>202800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>222800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>160700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>195300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>218900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>215900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>175800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>177000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>222200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>213300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>188800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>156900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,67 +1081,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>124900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1205,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>475700</v>
+      </c>
+      <c r="E17" s="3">
         <v>611300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>533600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>465800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>551400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>634400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>621800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>687500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>591200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>664500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>626700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>643200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>570900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>591700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>591500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>594300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>572400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>518000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E18" s="3">
         <v>78900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-236100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-92300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>117900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>114100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>121000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>62000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>124900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>121100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>69900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E21" s="3">
         <v>113000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>99000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-198700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-62000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>155400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>155800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>203900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>119500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>101600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>163600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>159800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>131200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4500</v>
       </c>
       <c r="P22" s="3">
         <v>4500</v>
       </c>
       <c r="Q22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R22" s="3">
         <v>4300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E23" s="3">
         <v>65700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-252200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>103500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>69500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>113000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>71100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>113500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>88300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E26" s="3">
         <v>67400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-249700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-99300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>99700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>114300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>109000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>116100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>83500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>74300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E27" s="3">
         <v>67400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-249700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-99300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>114300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>83500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>74300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1994,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E33" s="3">
         <v>67400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-249700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-99300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>104900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>99700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>114300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>116100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>83500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E35" s="3">
         <v>67400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-249700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-99300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>104900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>99700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>114300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>116100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>83500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,391 +2483,410 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E41" s="3">
         <v>505300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>232900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>465900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>505100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>47200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>46800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E42" s="3">
         <v>88800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>46000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>31300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27200</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>270200</v>
+      </c>
+      <c r="E43" s="3">
         <v>201100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>214500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>160800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>344600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>320900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>529900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>511900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>396600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>318800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>404000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>388000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>353500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>247300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>359600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>364600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>357900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>277700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>736400</v>
+      </c>
+      <c r="E44" s="3">
         <v>728000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>938600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1032700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1188200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1052100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1046500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1008500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1008300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>940000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>973900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>969700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>988600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>945700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>939400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>922700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>948200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>954900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E45" s="3">
         <v>21300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1657100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1544500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1436900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1711100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2103800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1514200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1701800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1644600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1561900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1382900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1526400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1486700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1461800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1307900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1411500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1395400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1436300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1340500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5400</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2793,8 +2897,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2811,126 +2915,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>938800</v>
+      </c>
+      <c r="E48" s="3">
         <v>956200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>994600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1011600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1061500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1068500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1076300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1068300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1046800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>990500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1016400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1017600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1024300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1035800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1038500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1052300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1068700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1076900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>492200</v>
+      </c>
+      <c r="E49" s="3">
         <v>496500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>502900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>507500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>511500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>611700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>612200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>614400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>616400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>620900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>623800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>627900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>622800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>628200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>632600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>634500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>637800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>556300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E52" s="3">
         <v>22300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3109800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3020900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2956100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3251600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3694900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3211100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3398000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3337800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3239700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3004600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3175000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3141800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3117900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3090400</v>
       </c>
       <c r="R54" s="3">
         <v>3090400</v>
       </c>
       <c r="S54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="T54" s="3">
         <v>3152300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2990100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,96 +3399,100 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E57" s="3">
         <v>326100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>323800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>297700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>291300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>395600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>377200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>351600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>299500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>332500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>288100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>285700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>255800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>269200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>245700</v>
       </c>
       <c r="S57" s="3">
         <v>245700</v>
       </c>
       <c r="T57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="U57" s="3">
         <v>232500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E58" s="3">
         <v>15900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13300</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3370,8 +3503,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3388,244 +3521,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
         <v>17700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>349200</v>
+      </c>
+      <c r="E60" s="3">
         <v>359600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>367300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>361300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>389100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>422400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>407600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>379500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>317600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>347000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>309100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>293800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>289000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>258500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>275100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>251300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>252900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>235900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1062900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1066600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1068100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1437600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1622500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>912000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>976300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1026700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>959200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>669000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>871000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>900000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>775000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>630000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>705000</v>
       </c>
       <c r="R61" s="3">
         <v>705000</v>
       </c>
       <c r="S61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="T61" s="3">
         <v>771000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>600000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E62" s="3">
         <v>35900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>51600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1445300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1462100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1480600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1841300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2052200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1376600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1435400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1456400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1324100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1068500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1227900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1238200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1106500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>929300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1021200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>995200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1060800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>870500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1359100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1282000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1225700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1475800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1628000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1755900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1678800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1703700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1740300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1731900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1689700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1807800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1853500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1876200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1898400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1878500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1903500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1664600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1558900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1475600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1410300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1642800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1834500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1962600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1881400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1915600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1936100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1947100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1903600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2011400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2051400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2069200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2095200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2091500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2119600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E81" s="3">
         <v>67400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-249700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-99300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>104900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>99700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>114300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>116100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>83500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E83" s="3">
         <v>39600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38000</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>41400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>291600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>181800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-209400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>262400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>124300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-105200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>274100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>130300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>199100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>168500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>179900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>65900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>170600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-117600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,55 +5559,58 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-30600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-27200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-370600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-216500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>677900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-233100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-81600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-56300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>163300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-256300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>38300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-159500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-136300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-164700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>71200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-156500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>400</v>
       </c>
       <c r="S101" s="3">
         <v>400</v>
       </c>
       <c r="T101" s="3">
+        <v>400</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E102" s="3">
         <v>272300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-233000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>441000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-22200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,291 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>747200</v>
+      </c>
+      <c r="E8" s="3">
         <v>589600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>690200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>602300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>229700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>459100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>658700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>739700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>801600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>623900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>742700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>754400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>764200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>647300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>653700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>716400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>715400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>665400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>587900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>519500</v>
+      </c>
+      <c r="E9" s="3">
         <v>425200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>544200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>466800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>378200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>352600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>540500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>536900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>578800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>463200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>547400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>535500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>548300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>471500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>476700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>494200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>502100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>476600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>431000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E10" s="3">
         <v>164400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>146000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-148500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>106500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>202800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>160700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>195300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>218900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>215900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>175800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>177000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>222200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>213300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>188800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>156900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,8 +972,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,70 +1100,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-22600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>124900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>587500</v>
+      </c>
+      <c r="E17" s="3">
         <v>475700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>611300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>533600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>465800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>551400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>634400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>621800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>687500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>591200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>664500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>626700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>643200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>570900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>591700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>591500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>594300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>572400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>518000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E18" s="3">
         <v>113900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-236100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-92300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>117900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>114100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>127700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>121000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>62000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>124900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>121100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>69900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,318 +1409,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E21" s="3">
         <v>145700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>113000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>99000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-198700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-62000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>155400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>203900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>119500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>101600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>163600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>159800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>131200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4500</v>
       </c>
       <c r="Q22" s="3">
         <v>4500</v>
       </c>
       <c r="R22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E23" s="3">
         <v>103000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-252200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>108000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>69500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>113000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>71100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>113500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>88300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>64000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-10300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E26" s="3">
         <v>98500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-249700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-99300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>104900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>99700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>109000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>54900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>116100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>83500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>74300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E27" s="3">
         <v>98500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-249700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-99300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>109000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>83500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1997,8 +2057,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2187,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E33" s="3">
         <v>98500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-249700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-99300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>104900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>116100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>83500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E35" s="3">
         <v>98500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-249700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-99300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>104900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>116100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>83500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,380 +2569,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>310900</v>
+      </c>
+      <c r="E41" s="3">
         <v>536000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>505300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>232900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>465900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>505100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>46800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E42" s="3">
         <v>85800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>88800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>46000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>31300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27200</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E43" s="3">
         <v>270200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>201100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>214500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>160800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>344600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>320900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>529900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>511900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>396600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>318800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>404000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>388000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>353500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>247300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>359600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>364600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>357900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>277700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>720700</v>
+      </c>
+      <c r="E44" s="3">
         <v>736400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>728000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>938600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1032700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1188200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1052100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1046500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1008500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1008300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>940000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>973900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>969700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>988600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>945700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>939400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>922700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>948200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>954900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E45" s="3">
         <v>28700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>69700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1461600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1657100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1544500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1436900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1711100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2103800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1514200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1701800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1644600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1561900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1382900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1526400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1486700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1461800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1307900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1411500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1395400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1436300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1340500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2865,31 +2969,31 @@
         <v>1100</v>
       </c>
       <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5400</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2900,8 +3004,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2918,132 +3022,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>941700</v>
+      </c>
+      <c r="E48" s="3">
         <v>938800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>956200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>994600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1011600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1061500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1068500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1076300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1068300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1046800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>990500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1016400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1017600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1024300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1035800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1038500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1052300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1068700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1076900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>488300</v>
+      </c>
+      <c r="E49" s="3">
         <v>492200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>496500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>502900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>507500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>511500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>611700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>612200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>614400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>616400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>620900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>623800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>627900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>622800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>628200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>632600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>634500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>637800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>556300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E52" s="3">
         <v>20500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2910900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3109800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3020900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2956100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3251600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3694900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3211100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3398000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3337800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3239700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3004600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3175000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3141800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3117900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>3090400</v>
       </c>
       <c r="S54" s="3">
         <v>3090400</v>
       </c>
       <c r="T54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="U54" s="3">
         <v>3152300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2990100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,102 +3529,106 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>388300</v>
+      </c>
+      <c r="E57" s="3">
         <v>320000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>326100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>323800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>297700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>291300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>395600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>377200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>351600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>299500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>332500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>288100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>285700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>255800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>269200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>245700</v>
       </c>
       <c r="T57" s="3">
         <v>245700</v>
       </c>
       <c r="U57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="V57" s="3">
         <v>232500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E58" s="3">
         <v>14700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13300</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3506,8 +3639,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3524,256 +3657,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>413100</v>
+      </c>
+      <c r="E60" s="3">
         <v>349200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>359600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>367300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>361300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>389100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>422400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>407600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>379500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>317600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>347000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>309100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>293800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>289000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>258500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>275100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>251300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>252900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>235900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>659700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1062900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1066600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1068100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1437600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1622500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>912000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>976300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1026700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>959200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>669000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>871000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>900000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>775000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>630000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>705000</v>
       </c>
       <c r="S61" s="3">
         <v>705000</v>
       </c>
       <c r="T61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="U61" s="3">
         <v>771000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>600000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>51600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1107800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1445300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1462100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1480600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1841300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2052200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1376600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1435400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1456400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1324100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1068500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1227900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1238200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1106500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>929300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1021200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>995200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1060800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>870500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1571700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1455900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1359100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1282000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1225700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1475800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1628000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1755900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1678800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1703700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1740300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1731900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1689700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1807800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1853500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1876200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1898400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1878500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1903500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1803100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1664600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1558900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1475600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1410300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1642800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1834500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1962600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1881400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1915600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1936100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1947100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1903600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2011400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2051400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2069200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2095200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2091500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2119600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E81" s="3">
         <v>98500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-249700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-99300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>104900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>116100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>83500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E83" s="3">
         <v>35600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38000</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>41400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E89" s="3">
         <v>20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>291600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>151000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>181800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-209400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>262400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>124300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-105200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>274100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>151700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>130300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>199100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>168500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>179900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>170600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,70 +5494,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-53500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-117600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5562,55 +5795,58 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-30600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-27200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,190 +6037,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-433500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-370600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-216500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>677900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-233100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-81600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>163300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-256300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>38300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-159500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-136300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-164700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>71200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-156500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>400</v>
       </c>
       <c r="T101" s="3">
         <v>400</v>
       </c>
       <c r="U101" s="3">
+        <v>400</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="E102" s="3">
         <v>30800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>272300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-233000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>441000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-22200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,303 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44199</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>801600</v>
+      </c>
+      <c r="E8" s="3">
         <v>747200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>589600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>690200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>602300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>229700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>459100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>658700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>739700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>801600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>623900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>742700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>754400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>764200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>647300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>653700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>716400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>715400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>665400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>587900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>549800</v>
+      </c>
+      <c r="E9" s="3">
         <v>519500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>425200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>544200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>466800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>378200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>352600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>540500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>536900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>578800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>463200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>547400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>535500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>548300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>471500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>476700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>494200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>502100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>476600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>431000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E10" s="3">
         <v>227700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>164400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>146000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>135500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-148500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>106500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>118200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>202800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>222800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>160700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>195300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>218900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>215900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>175800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>177000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>222200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>213300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>188800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>156900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,8 +985,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,73 +1119,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-12100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-22600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>124900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600200</v>
+      </c>
+      <c r="E17" s="3">
         <v>587500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>475700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>611300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>533600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>465800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>551400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>634400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>621800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>687500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>591200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>664500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>626700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>643200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>570900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>591700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>591500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>594300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>572400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>518000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E18" s="3">
         <v>159700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>113900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-236100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-92300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>114100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>127700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>121000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>62000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>124900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>121100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>93000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>69900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,333 +1442,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E21" s="3">
         <v>193100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>145700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>113000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>99000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-198700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-62000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>203900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>119500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>101600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>163600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>159800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>131200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4500</v>
       </c>
       <c r="R22" s="3">
         <v>4500</v>
       </c>
       <c r="S22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T22" s="3">
         <v>4300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E23" s="3">
         <v>153100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>103000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>57300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-252200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>108000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>103500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>71100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>113500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>88300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>64000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-10300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E26" s="3">
         <v>146400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>98500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-249700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-99300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>59600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>109000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>54900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>116100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>83500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>74300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E27" s="3">
         <v>146400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>98500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>67400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-249700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-99300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>109000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>116100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>107700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>83500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2120,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,138 +2256,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E33" s="3">
         <v>146400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>98500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-249700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-99300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>99700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>116100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>107700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>83500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E35" s="3">
         <v>146400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>98500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-249700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-99300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>99700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>116100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>107700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>83500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44199</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,433 +2655,452 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>389300</v>
+      </c>
+      <c r="E41" s="3">
         <v>310900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>536000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>505300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>232900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>465900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>505100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>46800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>38200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E42" s="3">
         <v>46600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>85800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>88800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>34100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>46000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>31300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>27200</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>374700</v>
+      </c>
+      <c r="E43" s="3">
         <v>343200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>270200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>201100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>214500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>160800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>344600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>320900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>529900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>511900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>396600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>318800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>404000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>388000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>353500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>247300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>359600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>364600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>357900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>277700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>725400</v>
+      </c>
+      <c r="E44" s="3">
         <v>720700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>736400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>728000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>938600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1032700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1188200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1052100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1046500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1008500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1008300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>940000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>973900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>969700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>988600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>945700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>939400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>922700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>948200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>954900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E45" s="3">
         <v>40200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>69700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1607800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1461600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1657100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1544500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1436900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1711100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2103800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1514200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1701800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1644600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1561900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1382900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1526400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1486700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1461800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1307900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1411500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1395400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1436300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1340500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
         <v>1100</v>
       </c>
       <c r="F47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5400</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3007,8 +3111,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3025,138 +3129,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>966600</v>
+      </c>
+      <c r="E48" s="3">
         <v>941700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>938800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>956200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>994600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1011600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1061500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1068500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1076300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1068300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1046800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>990500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1016400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1017600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1024300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1035800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1038500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1052300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1068700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1076900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>484600</v>
+      </c>
+      <c r="E49" s="3">
         <v>488300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>492200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>496500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>502900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>507500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>511500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>611700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>612200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>614400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>616400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>620900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>623800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>627900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>622800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>628200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>632600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>634500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>637800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>556300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,73 +3401,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E52" s="3">
         <v>18300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3075700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2910900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3109800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3020900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2956100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3251600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3694900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3211100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3398000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3337800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3239700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3004600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3175000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3141800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3117900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>3090400</v>
       </c>
       <c r="T54" s="3">
         <v>3090400</v>
       </c>
       <c r="U54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="V54" s="3">
         <v>3152300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2990100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,108 +3659,112 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>462100</v>
+      </c>
+      <c r="E57" s="3">
         <v>388300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>320000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>326100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>323800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>297700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>291300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>395600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>377200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>351600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>299500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>332500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>288100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>285700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>255800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>269200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>245700</v>
       </c>
       <c r="U57" s="3">
         <v>245700</v>
       </c>
       <c r="V57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="W57" s="3">
         <v>232500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E58" s="3">
         <v>13700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13300</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3642,8 +3775,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3660,268 +3793,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E60" s="3">
         <v>413100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>349200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>359600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>367300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>361300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>389100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>422400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>407600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>379500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>317600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>347000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>309100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>293800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>289000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>258500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>275100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>251300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>252900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>235900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>661100</v>
+      </c>
+      <c r="E61" s="3">
         <v>659700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1062900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1066600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1068100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1437600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1622500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>912000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>976300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1026700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>959200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>669000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>871000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>900000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>775000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>630000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>705000</v>
       </c>
       <c r="T61" s="3">
         <v>705000</v>
       </c>
       <c r="U61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="V61" s="3">
         <v>771000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>600000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E62" s="3">
         <v>35000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1186700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1107800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1445300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1462100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1480600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1841300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2052200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1376600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1435400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1456400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1324100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1068500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1227900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1238200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1106500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>929300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1021200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>995200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1060800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>870500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1605400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1571700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1455900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1359100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1282000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1225700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1475800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1628000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1755900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1678800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1703700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1740300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1731900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1689700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1807800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1853500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1876200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1898400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1878500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1903500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1803100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1664600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1558900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1475600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1410300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1642800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1834500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1962600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1881400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1915600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1936100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1947100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1903600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2011400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2051400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2069200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2095200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2091500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2119600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44199</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E81" s="3">
         <v>146400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>98500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-249700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-99300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>99700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>116100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>107700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>83500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E83" s="3">
         <v>35900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38000</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>41400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>242600</v>
+      </c>
+      <c r="E89" s="3">
         <v>200300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>291600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>151000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>181800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-209400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>262400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-105200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>274100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>151700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>130300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>199100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>168500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>179900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>170600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E94" s="3">
         <v>8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-53500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-117600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,13 +6012,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-30400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5798,55 +6031,58 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-30600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,199 +6282,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-153300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-433500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-370600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-216500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>677900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-233100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-81600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>163300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-256300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-107400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>38300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-159500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-136300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-164700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>71200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-156500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>400</v>
       </c>
       <c r="U101" s="3">
         <v>400</v>
       </c>
       <c r="V101" s="3">
+        <v>400</v>
+      </c>
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-225200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>272300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-233000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>441000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-22200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,315 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44199</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>784300</v>
+      </c>
+      <c r="E8" s="3">
         <v>801600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>747200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>589600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>690200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>602300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>229700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>459100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>658700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>739700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>801600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>623900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>742700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>754400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>764200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>647300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>653700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>716400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>715400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>665400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>587900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>552100</v>
+      </c>
+      <c r="E9" s="3">
         <v>549800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>519500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>425200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>544200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>466800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>378200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>352600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>540500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>536900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>578800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>463200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>547400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>535500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>548300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>471500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>476700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>494200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>502100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>476600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>431000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E10" s="3">
         <v>251800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>227700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>164400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>146000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>135500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-148500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>106500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>202800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>160700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>195300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>218900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>215900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>175800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>177000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>222200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>213300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>188800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>156900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +998,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1067,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,76 +1138,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-30500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-12100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-22600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>124900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,8 +1280,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>607200</v>
+      </c>
+      <c r="E17" s="3">
         <v>600200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>587500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>475700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>611300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>533600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>465800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>551400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>634400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>621800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>687500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>591200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>664500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>626700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>643200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>570900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>591700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>591500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>594300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>572400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>518000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E18" s="3">
         <v>201400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>159700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>113900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-236100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-92300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>127700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>121000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>62000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>124900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>121100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>93000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>69900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,348 +1475,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E21" s="3">
         <v>234200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>193100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>145700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>113000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>99000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-198700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-62000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>203900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>119500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>101600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>163600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>159800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>131200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4500</v>
       </c>
       <c r="S22" s="3">
         <v>4500</v>
       </c>
       <c r="T22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U22" s="3">
         <v>4300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E23" s="3">
         <v>196000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>153100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>103000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>57300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-252200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>108000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>103500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>113000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>118900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>113500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>88300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>64000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-10300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E26" s="3">
         <v>188300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>146400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>98500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-249700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-99300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>59600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>114300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>109000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>67900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>54900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>116100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>107700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>83500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>74300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E27" s="3">
         <v>188300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>146400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>98500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-249700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-99300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>59600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>67900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>116100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>107700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>83500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>74300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2123,8 +2183,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,144 +2325,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E33" s="3">
         <v>188300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>98500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-249700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-99300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>59600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>67900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>116100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>107700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>83500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>74300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E35" s="3">
         <v>188300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>98500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-249700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-99300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>59600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>67900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>116100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>107700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>83500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>74300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44199</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,454 +2741,473 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E41" s="3">
         <v>389300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>310900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>536000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>505300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>232900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>465900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>505100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>46800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>38200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E42" s="3">
         <v>36800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>85800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>34100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>39800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>31300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>29900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27200</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E43" s="3">
         <v>374700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>343200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>270200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>201100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>214500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>160800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>344600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>320900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>529900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>511900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>396600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>318800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>404000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>388000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>353500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>247300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>359600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>364600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>357900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>277700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>774400</v>
+      </c>
+      <c r="E44" s="3">
         <v>725400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>720700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>736400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>728000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>938600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1032700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1188200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1052100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1046500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1008500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1008300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>940000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>973900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>969700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>988600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>945700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>939400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>922700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>948200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>954900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E45" s="3">
         <v>81500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>69700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1447200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1607800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1461600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1657100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1544500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1436900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1711100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2103800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1514200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1701800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1644600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1561900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1382900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1526400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1486700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1461800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1307900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1411500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1395400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1436300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1340500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1100</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
       </c>
       <c r="G47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5400</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3114,8 +3218,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3132,144 +3236,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1077500</v>
+      </c>
+      <c r="E48" s="3">
         <v>966600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>941700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>938800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>956200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>994600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1011600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1061500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1068500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1076300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1068300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1046800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>990500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1016400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1017600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1024300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1035800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1038500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1052300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1068700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1076900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>590400</v>
+      </c>
+      <c r="E49" s="3">
         <v>484600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>488300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>492200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>496500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>502900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>507500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>511500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>611700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>612200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>614400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>616400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>620900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>623800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>627900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>622800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>628200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>632600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>634500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>637800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>556300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,76 +3520,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E52" s="3">
         <v>15700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3136700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3075700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2910900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3109800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3020900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2956100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3251600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3694900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3211100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3398000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3337800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3239700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3004600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3175000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3141800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3117900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="T54" s="3">
-        <v>3090400</v>
       </c>
       <c r="U54" s="3">
         <v>3090400</v>
       </c>
       <c r="V54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="W54" s="3">
         <v>3152300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2990100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,114 +3789,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="E57" s="3">
         <v>462100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>388300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>320000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>326100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>323800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>297700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>291300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>395600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>377200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>351600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>299500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>332500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>288100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>285700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>255800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>269200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>245700</v>
       </c>
       <c r="V57" s="3">
         <v>245700</v>
       </c>
       <c r="W57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="X57" s="3">
         <v>232500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E58" s="3">
         <v>14700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13300</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3778,8 +3911,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3796,280 +3929,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>81900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>463600</v>
+      </c>
+      <c r="E60" s="3">
         <v>489400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>413100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>349200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>359600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>367300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>361300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>389100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>422400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>407600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>379500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>317600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>347000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>309100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>293800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>289000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>258500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>275100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>251300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>252900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>235900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>693800</v>
+      </c>
+      <c r="E61" s="3">
         <v>661100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>659700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1062900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1066600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1068100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1437600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1622500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>912000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>976300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1026700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>959200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>669000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>871000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>900000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>775000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>630000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>705000</v>
       </c>
       <c r="U61" s="3">
         <v>705000</v>
       </c>
       <c r="V61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="W61" s="3">
         <v>771000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>600000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E62" s="3">
         <v>36200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>41000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>38900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>36900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1186700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1107800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1445300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1462100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1480600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1841300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2052200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1376600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1435400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1456400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1324100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1068500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1227900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1238200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1106500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>929300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1021200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>995200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1060800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>870500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4570,8 +4737,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1604700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1605400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1571700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1455900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1359100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1282000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1225700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1475800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1628000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1755900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1678800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1703700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1740300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1731900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1689700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1807800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1853500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1876200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1898400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1878500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1903500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1919400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1889000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1803100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1664600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1558900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1475600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1410300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1642800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1834500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1962600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1881400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1915600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1936100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1947100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1903600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2011400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2051400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2069200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2095200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2091500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2119600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44199</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E81" s="3">
         <v>188300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>98500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-249700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-99300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>59600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>67900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>116100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>107700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>83500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>74300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E83" s="3">
         <v>34300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38000</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>41400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E89" s="3">
         <v>242600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>291600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>151000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>181800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-209400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>262400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-105200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>274100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>151700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>130300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>199100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>168500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>179900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>170600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-202400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-53500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-117600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,17 +6245,18 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6034,55 +6267,58 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-30600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-27200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,208 +6527,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-153300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-433500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-370600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-216500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>677900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-233100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-81600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>163300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-256300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-107900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-107400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>38300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-159500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-136300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-164700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>71200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-156500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>400</v>
       </c>
       <c r="V101" s="3">
         <v>400</v>
       </c>
       <c r="W101" s="3">
+        <v>400</v>
+      </c>
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-210100</v>
+      </c>
+      <c r="E102" s="3">
         <v>78500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-225200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>272300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-233000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>441000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-30400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-22200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,327 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>774900</v>
+      </c>
+      <c r="E8" s="3">
         <v>784300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>801600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>747200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>589600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>690200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>602300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>459100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>658700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>739700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>801600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>623900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>742700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>754400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>764200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>647300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>653700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>716400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>715400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>665400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>587900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>534700</v>
+      </c>
+      <c r="E9" s="3">
         <v>552100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>549800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>519500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>425200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>544200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>466800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>378200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>352600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>540500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>536900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>578800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>463200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>547400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>535500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>548300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>471500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>476700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>494200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>502100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>476600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>431000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E10" s="3">
         <v>232200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>251800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>227700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>164400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>146000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>135500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-148500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>106500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>202800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>160700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>195300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>218900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>215900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>175800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>177000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>222200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>213300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>188800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>156900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1011,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1083,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,79 +1157,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-25400</v>
       </c>
-      <c r="E14" s="3">
-        <v>-30500</v>
-      </c>
       <c r="F14" s="3">
-        <v>-12100</v>
+        <v>-30200</v>
       </c>
       <c r="G14" s="3">
-        <v>-22600</v>
+        <v>-11700</v>
       </c>
       <c r="H14" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="I14" s="3">
         <v>-4900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>124900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,8 +1305,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1332,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>612700</v>
+      </c>
+      <c r="E17" s="3">
         <v>607200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>587500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>475700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>611300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>533600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>465800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>551400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>634400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>621800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>687500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>591200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>664500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>626700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>643200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>570900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>591700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>591500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>594300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>572400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>518000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E18" s="3">
         <v>177100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>201400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>159700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>113900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-236100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-92300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>127700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>121000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>62000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>124900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>121100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>93000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>69900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,363 +1508,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E21" s="3">
         <v>204500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>234200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>193100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>145700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>113000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>99000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-198700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-62000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>114500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>203900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>119500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>101600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>163600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>159800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>131200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>100500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4500</v>
       </c>
       <c r="T22" s="3">
         <v>4500</v>
       </c>
       <c r="U22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V22" s="3">
         <v>4300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E23" s="3">
         <v>172400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>196000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>153100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>103000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-252200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>108000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>103500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>113000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>71100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>118900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>113500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>88300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>64000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1902,150 +1950,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E26" s="3">
         <v>173900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>188300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>146400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>98500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-249700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-99300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>114300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>109000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>67900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>54900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>116100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>107700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>83500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>74300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E27" s="3">
         <v>173900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>188300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>146400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>98500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-249700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-99300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>104900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>59600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>114300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>109000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>67900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>116100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>107700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>83500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>74300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2172,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2186,8 +2246,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2320,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,150 +2394,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E33" s="3">
         <v>173900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>188300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>146400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>98500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-249700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-99300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>104900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>67900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>116100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>107700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>83500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>74300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2616,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E35" s="3">
         <v>173900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>188300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>146400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>98500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-249700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-99300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>104900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>67900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>116100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>107700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>83500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>74300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2799,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,475 +2827,494 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E41" s="3">
         <v>179200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>389300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>310900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>536000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>505300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>232900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>465900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>505100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>46800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>58000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>38200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E42" s="3">
         <v>70000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>85800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>39800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>31300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>27200</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>460700</v>
+      </c>
+      <c r="E43" s="3">
         <v>330000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>374700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>343200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>270200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>214500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>160800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>344600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>320900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>529900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>511900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>396600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>318800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>404000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>388000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>353500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>247300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>359600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>364600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>357900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>277700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>889500</v>
+      </c>
+      <c r="E44" s="3">
         <v>774400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>725400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>720700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>736400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>728000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>938600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1032700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1188200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1052100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1046500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1008500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1008300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>940000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>973900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>969700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>988600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>945700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>939400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>922700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>948200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>954900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E45" s="3">
         <v>93700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>69700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1653500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1447200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1607800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1461600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1657100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1544500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1436900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1711100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2103800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1514200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1701800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1644600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1561900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1382900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1526400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1486700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1461800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1307900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1411500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1395400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1436300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1340500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1100</v>
       </c>
       <c r="G47" s="3">
         <v>1100</v>
       </c>
       <c r="H47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I47" s="3">
         <v>1400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5400</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3221,8 +3325,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3239,150 +3343,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1091800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1077500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>966600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>941700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>938800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>956200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>994600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1011600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1061500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1068500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1076300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1068300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1046800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>990500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1016400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1017600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1024300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1035800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1038500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1052300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1068700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1076900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>587300</v>
+      </c>
+      <c r="E49" s="3">
         <v>590400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>484600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>488300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>492200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>496500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>502900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>507500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>511500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>611700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>612200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>614400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>616400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>620900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>623800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>627900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>622800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>628200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>632600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>634500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>637800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>556300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3565,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,79 +3639,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
         <v>21100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>16400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3787,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3349800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3136700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3075700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2910900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3109800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3020900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2956100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3251600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3694900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3211100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3398000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3337800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3239700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3004600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3175000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3141800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3117900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>3090400</v>
       </c>
       <c r="V54" s="3">
         <v>3090400</v>
       </c>
       <c r="W54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="X54" s="3">
         <v>3152300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2990100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +3891,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,8 +3919,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3799,111 +3929,114 @@
         <v>436100</v>
       </c>
       <c r="E57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="F57" s="3">
         <v>462100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>388300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>320000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>326100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>323800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>297700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>291300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>395600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>377200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>351600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>299500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>332500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>288100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>285700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>255800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>269200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>245700</v>
       </c>
       <c r="W57" s="3">
         <v>245700</v>
       </c>
       <c r="X57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="Y57" s="3">
         <v>232500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
         <v>15300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13300</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3914,8 +4047,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3932,292 +4065,307 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E59" s="3">
         <v>12200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>497200</v>
+      </c>
+      <c r="E60" s="3">
         <v>463600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>489400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>413100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>349200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>359600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>367300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>361300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>389100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>422400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>407600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>379500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>317600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>347000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>309100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>293800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>289000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>258500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>275100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>251300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>252900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>235900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>936300</v>
+      </c>
+      <c r="E61" s="3">
         <v>693800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>661100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>659700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1062900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1066600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1068100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1437600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1622500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>912000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>976300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1026700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>959200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>669000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>871000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>900000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>775000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>630000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>705000</v>
       </c>
       <c r="V61" s="3">
         <v>705000</v>
       </c>
       <c r="W61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="X61" s="3">
         <v>771000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>600000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E62" s="3">
         <v>59900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>36200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>36900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4435,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4358,8 +4509,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4583,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1492400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1217300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1186700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1107800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1445300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1462100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1480600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1841300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2052200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1376600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1435400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1456400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1324100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1068500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1227900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1238200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1106500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>929300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1021200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>995200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1060800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>870500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4687,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4759,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4833,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,8 +4907,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +4981,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1518000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1604700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1605400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1571700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1455900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1359100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1282000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1225700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1475800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1628000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1755900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1678800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1703700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1740300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1731900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1689700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1807800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1853500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1876200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1898400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1878500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1903500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5129,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5203,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5277,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1857300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1919400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1889000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1803100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1664600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1558900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1475600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1410300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1642800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1834500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1962600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1881400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1915600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1936100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1947100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1903600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2011400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2051400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2069200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2095200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2091500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2119600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5425,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E81" s="3">
         <v>173900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>188300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>146400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>98500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-249700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-99300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>104900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>67900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>116100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>107700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>83500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>74300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,79 +5608,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E83" s="3">
         <v>29600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38000</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>41400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5754,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +5828,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +5902,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +5976,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6050,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E89" s="3">
         <v>154000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>242600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>291600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>151000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>181800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-209400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>262400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>124300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-105200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>274100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>151700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>130300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>199100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>168500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>179900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>65900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>170600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6154,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6300,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6374,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-202400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-53500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-117600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,20 +6478,21 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-30400</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6270,55 +6503,58 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-27200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6624,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6698,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,217 +6772,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-161500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-153300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-433500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-370600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-216500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>677900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-233100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-81600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>163300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-256300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-107900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-107400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>38300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-159500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-136300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-164700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>71200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-156500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
-      </c>
-      <c r="V101" s="3">
-        <v>400</v>
       </c>
       <c r="W101" s="3">
         <v>400</v>
       </c>
       <c r="X101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-210100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>78500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-225200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>272300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-233000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>441000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,327 +665,339 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44654</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44563</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44199</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>895600</v>
+      </c>
+      <c r="E8" s="3">
         <v>774900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>784300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>801600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>747200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>589600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>690200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>602300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>459100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>658700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>739700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>801600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>623900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>742700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>754400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>764200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>647300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>653700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>716400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>715400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>665400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>587900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>630600</v>
+      </c>
+      <c r="E9" s="3">
         <v>534700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>552100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>549800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>519500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>425200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>544200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>466800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>378200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>352600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>540500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>536900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>578800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>463200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>547400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>535500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>548300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>471500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>476700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>494200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>502100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>476600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>431000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E10" s="3">
         <v>240200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>232200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>251800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>227700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>164400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>146000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>135500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-148500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>106500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>202800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>222800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>160700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>195300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>218900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>215900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>175800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>177000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>222200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>213300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>188800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>156900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,8 +1024,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,8 +1099,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,82 +1176,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-25400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-30200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-11700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-22800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>124900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1308,8 +1330,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1333,156 +1358,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>721600</v>
+      </c>
+      <c r="E17" s="3">
         <v>612700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>607200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>587500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>475700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>611300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>533600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>465800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>551400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>634400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>621800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>687500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>591200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>664500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>626700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>643200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>570900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>591700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>591500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>594300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>572400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>518000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E18" s="3">
         <v>162200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>177100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>201400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>159700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>113900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-236100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-92300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>114100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>127700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>121000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>62000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>124900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>121100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>93000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>69900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1509,378 +1541,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E21" s="3">
         <v>193200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>234200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>193100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>145700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>113000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>99000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-198700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-62000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>114500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>203900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>119500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>117000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>101600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>163600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>159800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>131200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>100500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>4500</v>
       </c>
       <c r="U22" s="3">
         <v>4500</v>
       </c>
       <c r="V22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W22" s="3">
         <v>4300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E23" s="3">
         <v>155200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>172400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>196000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>153100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>103000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>57300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-252200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>108000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>113000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>71100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>118900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>113500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>88300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>64000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1953,156 +2001,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E26" s="3">
         <v>146400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>173900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>188300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>146400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>98500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-249700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-99300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>104900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>99700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>109000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>54900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>116100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>107700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>83500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>74300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E27" s="3">
         <v>146400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>173900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>188300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>146400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>98500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>67400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-249700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-99300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>109000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>67900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>54900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>116100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>107700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>83500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>74300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2175,8 +2232,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2249,8 +2309,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2323,8 +2386,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2397,156 +2463,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E33" s="3">
         <v>146400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>173900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>188300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>146400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>98500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-249700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-99300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>109000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>67900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>54900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>116100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>107700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>83500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>74300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2619,161 +2694,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E35" s="3">
         <v>146400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>173900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>188300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>98500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-249700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-99300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>109000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>67900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>54900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>116100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>107700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>83500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>74300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44654</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44563</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44199</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2800,8 +2884,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2828,452 +2913,471 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E41" s="3">
         <v>121600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>389300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>310900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>536000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>505300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>232900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>465900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>505100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>81000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>46800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>58000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>38200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E42" s="3">
         <v>69400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>70000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>85800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>46000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>40200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>42900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>31300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>27200</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>460800</v>
+      </c>
+      <c r="E43" s="3">
         <v>460700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>330000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>374700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>343200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>270200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>201100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>214500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>160800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>344600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>320900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>529900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>511900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>396600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>318800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>404000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>388000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>353500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>247300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>359600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>364600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>357900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>277700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E44" s="3">
         <v>889500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>774400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>725400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>720700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>736400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>728000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>938600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1032700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1188200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1052100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1046500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1008500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1008300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>940000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>973900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>969700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>988600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>945700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>939400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>922700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>948200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>954900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E45" s="3">
         <v>112400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>93700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>69700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1634500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1653500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1447200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1607800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1461600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1657100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1544500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1436900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1711100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2103800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1514200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1701800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1644600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1561900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1382900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1526400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1486700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1461800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1307900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1411500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1395400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1436300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1340500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3281,43 +3385,43 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
+        <v>300</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1100</v>
       </c>
       <c r="H47" s="3">
         <v>1100</v>
       </c>
       <c r="I47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3328,8 +3432,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3346,156 +3450,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1120400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1091800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1077500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>966600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>941700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>938800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>956200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>994600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1011600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1061500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1068500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1076300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1068300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1046800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>990500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1016400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1017600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1024300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1035800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1038500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1052300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1068700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1076900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>583900</v>
+      </c>
+      <c r="E49" s="3">
         <v>587300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>590400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>484600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>488300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>492200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>496500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>502900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>507500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>511500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>611700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>612200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>614400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>616400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>620900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>623800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>627900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>622800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>628200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>632600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>634500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>637800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>556300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3568,8 +3681,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3642,82 +3758,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E52" s="3">
         <v>16900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>16400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3790,82 +3912,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3355300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3349800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3136700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3075700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2910900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3109800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3020900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2956100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3251600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3694900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3211100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3398000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3337800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3239700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3004600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3175000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3141800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3117900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>3090400</v>
       </c>
       <c r="W54" s="3">
         <v>3090400</v>
       </c>
       <c r="X54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>3152300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2990100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3892,8 +4020,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3920,82 +4049,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>436100</v>
+        <v>499500</v>
       </c>
       <c r="E57" s="3">
         <v>436100</v>
       </c>
       <c r="F57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="G57" s="3">
         <v>462100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>388300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>320000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>326100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>323800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>297700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>291300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>395600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>377200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>351600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>299500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>332500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>288100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>285700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>255800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>269200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>245700</v>
       </c>
       <c r="X57" s="3">
         <v>245700</v>
       </c>
       <c r="Y57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="Z57" s="3">
         <v>232500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4003,43 +4136,43 @@
         <v>14600</v>
       </c>
       <c r="E58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F58" s="3">
         <v>15300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13300</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4050,8 +4183,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4068,304 +4201,319 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E59" s="3">
         <v>46600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E60" s="3">
         <v>497200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>463600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>489400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>413100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>349200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>359600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>367300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>361300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>389100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>422400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>407600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>379500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>317600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>347000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>309100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>293800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>289000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>258500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>275100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>251300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>252900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>235900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E61" s="3">
         <v>936300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>693800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>661100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>659700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1062900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1066600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1068100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1437600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1622500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>912000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>976300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1026700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>959200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>669000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>871000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>900000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>775000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>630000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>705000</v>
       </c>
       <c r="W61" s="3">
         <v>705000</v>
       </c>
       <c r="X61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>771000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>600000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E62" s="3">
         <v>58900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>59900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>41000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>36900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4438,8 +4586,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4512,8 +4663,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4586,82 +4740,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1492100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1492400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1217300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1186700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1107800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1445300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1462100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1480600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1841300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2052200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1376600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1435400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1456400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1324100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1068500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1227900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1238200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1106500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>929300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1021200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>995200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1060800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>870500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4688,8 +4848,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4762,8 +4923,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4836,8 +5000,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4910,8 +5077,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4984,82 +5154,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1518000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1604700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1605400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1571700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1455900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1359100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1282000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1225700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1475800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1628000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1755900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1678800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1703700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1740300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1731900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1689700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1807800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1853500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1876200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1898400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1878500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1903500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5132,8 +5308,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5206,8 +5385,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5280,82 +5462,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1863200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1857300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1919400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1889000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1803100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1664600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1558900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1475600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1410300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1642800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1834500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1962600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1881400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1915600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1936100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1947100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1903600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2011400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2051400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2069200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2095200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2091500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2119600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5428,161 +5616,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44654</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44563</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44199</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E81" s="3">
         <v>146400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>173900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>188300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>146400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>98500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-249700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-99300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>109000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>67900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>54900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>116100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>107700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>83500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>74300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5609,82 +5806,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E83" s="3">
         <v>33500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38000</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>41400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5757,8 +5958,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5831,8 +6035,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5905,8 +6112,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5979,8 +6189,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6053,82 +6266,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>154000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>242600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>291600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>151000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>181800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-209400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>262400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>124300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-105200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>274100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>151700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>130300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>199100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>168500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>179900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>65900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>170600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6155,82 +6374,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6303,8 +6526,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6377,82 +6603,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-202400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-53500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-35800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6479,8 +6711,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6488,14 +6721,14 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-29700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-30400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6506,55 +6739,58 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-30600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-27200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6627,8 +6863,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6701,8 +6940,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6775,226 +7017,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="E100" s="3">
         <v>27300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-161500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-153300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-433500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-370600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-216500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>677900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-233100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-81600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>163300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-256300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-107900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-107400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>38300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-159500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-136300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-164700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>71200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-156500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
-      </c>
-      <c r="W101" s="3">
-        <v>400</v>
       </c>
       <c r="X101" s="3">
         <v>400</v>
       </c>
       <c r="Y101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-210100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>78500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-225200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>272300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-233000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>441000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,339 +665,351 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44837</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E8" s="3">
         <v>895600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>774900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>784300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>801600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>747200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>589600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>690200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>602300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>459100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>658700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>739700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>801600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>623900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>742700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>754400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>764200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>647300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>653700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>716400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>715400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>665400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>587900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>597800</v>
+      </c>
+      <c r="E9" s="3">
         <v>630600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>534700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>552100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>549800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>519500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>425200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>544200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>466800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>378200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>352600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>540500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>536900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>578800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>463200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>547400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>535500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>548300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>471500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>476700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>494200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>502100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>476600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>431000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E10" s="3">
         <v>265000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>240200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>232200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>251800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>227700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>164400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>146000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>135500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-148500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>106500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>118200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>202800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>222800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>160700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>195300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>218900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>215900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>175800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>177000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>222200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>213300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>188800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>156900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1037,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1115,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,85 +1195,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>2600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-25400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-30200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-11700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-22800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>124900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,8 +1355,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1359,162 +1384,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>675400</v>
+      </c>
+      <c r="E17" s="3">
         <v>721600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>612700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>607200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>587500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>475700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>611300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>533600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>465800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>551400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>634400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>621800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>687500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>591200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>664500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>626700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>643200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>570900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>591700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>591500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>594300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>572400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>518000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>174600</v>
+      </c>
+      <c r="E18" s="3">
         <v>174000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>162200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>177100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>201400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>113900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-236100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-92300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>114100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>127700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>121000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>62000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>124900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>121100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>93000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>69900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,393 +1574,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E21" s="3">
         <v>204600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>193200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>234200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>193100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>145700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>113000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-198700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-62000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>114500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>203900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>119500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>117000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>101600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>163600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>159800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>131200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>100500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>4500</v>
       </c>
       <c r="V22" s="3">
         <v>4500</v>
       </c>
       <c r="W22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="X22" s="3">
         <v>4300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E23" s="3">
         <v>166600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>155200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>172400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>196000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>153100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>103000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-252200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>108000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>113000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>71100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>56100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>118900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>113500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>88300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>64000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2004,162 +2052,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>158200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>146400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>173900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>188300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>146400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>98500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-249700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-99300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>104900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>99700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>59600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>114300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>109000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>67900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>54900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>116100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>107700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>83500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>74300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E27" s="3">
         <v>158200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>146400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>173900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>188300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>146400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>98500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>67400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-249700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-99300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>104900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>59600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>109000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>67900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>54900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>116100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>107700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>83500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>74300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,8 +2292,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2312,8 +2372,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2389,8 +2452,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2466,162 +2532,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E33" s="3">
         <v>158200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>173900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>188300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>146400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>98500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-249700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-99300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>104900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>59600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>109000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>67900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>54900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>116100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>107700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>83500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>74300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2697,167 +2772,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E35" s="3">
         <v>158200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>173900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>188300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>146400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>98500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-249700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-99300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>104900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>59600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>109000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>67900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>54900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>116100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>107700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>83500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>74300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44837</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2885,8 +2969,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2914,517 +2999,536 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E41" s="3">
         <v>73700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>179200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>389300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>310900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>536000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>505300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>232900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>465900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>505100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>81000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>46700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>51500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>47200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>46800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>58000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>38200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E42" s="3">
         <v>72200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>69400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>70000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>46600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>85800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>88800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>46000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>40900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>42900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>39800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>38400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>31300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>30600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>27200</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>431500</v>
+      </c>
+      <c r="E43" s="3">
         <v>460800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>460700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>330000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>374700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>343200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>270200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>201100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>214500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>160800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>344600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>320900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>529900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>511900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>396600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>318800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>404000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>388000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>353500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>247300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>359600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>364600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>357900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>277700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E44" s="3">
         <v>971000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>889500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>774400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>725400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>720700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>736400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>728000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>938600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1032700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1188200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1052100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1046500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1008500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1008300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>940000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>973900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>969700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>988600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>945700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>939400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>922700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>948200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>954900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E45" s="3">
         <v>56900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>93700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>37000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>72200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>69700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1730000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1634500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1653500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1447200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1607800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1461600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1657100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1544500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1436900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1711100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2103800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1514200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1701800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1644600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1561900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1382900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1526400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1486700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1461800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1307900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1411500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1395400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1436300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1340500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
+        <v>300</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1100</v>
       </c>
       <c r="I47" s="3">
         <v>1100</v>
       </c>
       <c r="J47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5400</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3435,8 +3539,8 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3453,162 +3557,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1137800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1120400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1091800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1077500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>966600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>941700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>938800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>956200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>994600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1011600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1061500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1068500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1076300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1068300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1046800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>990500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1016400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1017600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1024300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1035800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1038500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1052300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1068700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1076900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>566500</v>
+      </c>
+      <c r="E49" s="3">
         <v>583900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>587300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>590400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>484600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>488300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>492200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>496500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>502900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>507500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>511500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>611700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>612200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>614400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>616400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>620900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>623800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>627900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>622800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>628200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>632600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>634500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>637800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>556300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3684,8 +3797,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3761,85 +3877,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
         <v>16200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>16400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3915,85 +4037,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3440000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3355300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3349800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3136700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3075700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2910900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3109800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3020900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2956100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3251600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3694900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3211100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3398000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3337800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3239700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3004600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3175000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3141800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3117900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="W54" s="3">
-        <v>3090400</v>
       </c>
       <c r="X54" s="3">
         <v>3090400</v>
       </c>
       <c r="Y54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>3152300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2990100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4021,8 +4149,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4050,132 +4179,136 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>490600</v>
+      </c>
+      <c r="E57" s="3">
         <v>499500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>436100</v>
       </c>
       <c r="F57" s="3">
         <v>436100</v>
       </c>
       <c r="G57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="H57" s="3">
         <v>462100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>388300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>320000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>326100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>323800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>297700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>291300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>395600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>377200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>351600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>299500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>332500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>288100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>285700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>255800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>269200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>245700</v>
       </c>
       <c r="Y57" s="3">
         <v>245700</v>
       </c>
       <c r="Z57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="AA57" s="3">
         <v>232500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>163400</v>
       </c>
       <c r="E58" s="3">
         <v>14600</v>
       </c>
       <c r="F58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G58" s="3">
         <v>15300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13300</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4186,8 +4319,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4204,316 +4337,331 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>670500</v>
+      </c>
+      <c r="E60" s="3">
         <v>525000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>497200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>463600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>489400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>413100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>349200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>359600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>367300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>361300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>389100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>422400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>407600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>379500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>317600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>347000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>309100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>293800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>289000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>258500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>275100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>251300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>252900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>235900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>849500</v>
+      </c>
+      <c r="E61" s="3">
         <v>907000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>936300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>693800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>661100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>659700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1062900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1066600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1068100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1437600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1622500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>912000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>976300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1026700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>959200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>669000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>871000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>900000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>775000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>630000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>705000</v>
       </c>
       <c r="X61" s="3">
         <v>705000</v>
       </c>
       <c r="Y61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>771000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>600000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E62" s="3">
         <v>60000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>58900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>52500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>41000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>38900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>36900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>34600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,8 +4737,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4666,8 +4817,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4743,85 +4897,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1581700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1492100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1492400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1217300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1186700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1107800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1445300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1462100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1480600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1841300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2052200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1376600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1435400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1456400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1324100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1068500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1227900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1238200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1106500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>929300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1021200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>995200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1060800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>870500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4849,8 +5009,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4926,8 +5087,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5003,8 +5167,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5080,8 +5247,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5157,85 +5327,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1567200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1537400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1518000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1604700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1605400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1571700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1455900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1359100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1282000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1225700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1475800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1628000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1755900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1678800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1703700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1740300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1731900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1689700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1807800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1853500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1876200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1898400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1878500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1903500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5311,8 +5487,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5388,8 +5567,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5465,85 +5647,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1858300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1863200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1857300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1919400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1889000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1803100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1664600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1558900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1475600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1410300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1642800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1834500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1962600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1881400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1915600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1936100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1947100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1903600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2011400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2051400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2069200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2095200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2091500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2119600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5619,167 +5807,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44837</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E81" s="3">
         <v>158200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>173900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>188300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>146400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>98500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-249700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-99300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>104900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>59600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>109000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>67900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>54900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>116100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>107700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>83500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>74300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5807,85 +6004,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E83" s="3">
         <v>32300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38000</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>41400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>32600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5961,8 +6162,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6038,8 +6242,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6115,8 +6322,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6192,8 +6402,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6269,85 +6482,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E89" s="3">
         <v>209700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-51500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>154000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>242600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>291600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>151000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>181800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-209400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>262400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>124300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-105200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>274100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>151700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>130300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>199100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>168500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>179900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>65900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>170600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6375,85 +6594,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-37400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-28900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6529,8 +6752,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6606,85 +6832,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-202400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-53500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-33600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-35800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6712,26 +6944,27 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-30600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-29700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-30400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6742,55 +6975,58 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-30600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-27200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-20500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-21600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6866,8 +7102,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6943,8 +7182,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7020,235 +7262,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-206200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-161500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-153300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-433500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-370600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-216500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>677900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-233100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-81600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>163300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-256300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-107900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-107400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>38300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-159500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-136300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-164700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>71200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-156500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
-      </c>
-      <c r="X101" s="3">
-        <v>400</v>
       </c>
       <c r="Y101" s="3">
         <v>400</v>
       </c>
       <c r="Z101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-210100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>78500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-225200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>272300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-233000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>441000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,351 +665,363 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
         <v>44837</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44563</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44199</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E8" s="3">
         <v>850000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>895600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>774900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>784300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>801600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>747200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>589600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>690200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>602300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>459100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>658700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>739700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>801600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>623900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>742700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>754400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>764200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>647300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>653700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>716400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>715400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>665400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>587900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>510800</v>
+      </c>
+      <c r="E9" s="3">
         <v>597800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>630600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>534700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>552100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>549800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>519500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>425200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>544200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>466800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>378200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>352600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>540500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>536900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>578800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>463200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>547400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>535500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>548300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>471500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>476700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>494200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>502100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>476600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>431000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E10" s="3">
         <v>252200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>265000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>240200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>232200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>251800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>227700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>164400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>146000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>135500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-148500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>118200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>202800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>222800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>160700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>195300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>215900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>175800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>177000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>222200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>213300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>188800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>156900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1050,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,8 +1131,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,88 +1214,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-25400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-30200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-11700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-22800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>124900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,8 +1380,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1385,168 +1410,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>627400</v>
+      </c>
+      <c r="E17" s="3">
         <v>675400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>721600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>612700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>607200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>587500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>475700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>611300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>533600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>465800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>551400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>634400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>621800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>687500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>591200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>664500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>626700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>643200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>570900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>591700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>591500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>594300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>572400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>518000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E18" s="3">
         <v>174600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>174000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>162200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>177100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>201400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>159700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>113900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-236100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-92300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>114100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>78200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>127700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>121000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>62000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>124900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>121100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>93000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>69900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,408 +1607,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E21" s="3">
         <v>204300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>193200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>234200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>193100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>145700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>113000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>99000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-198700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-62000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>114500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>203900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>117000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>101600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>163600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>159800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>131200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>100500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>4500</v>
       </c>
       <c r="W22" s="3">
         <v>4500</v>
       </c>
       <c r="X22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Y22" s="3">
         <v>4300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E23" s="3">
         <v>165300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>166600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>155200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>172400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>196000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>153100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>103000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-252200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>108000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>103500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>118500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>113000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>71100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>56100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>118900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>113500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>88300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>64000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-17800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2055,168 +2103,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E26" s="3">
         <v>153000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>158200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>146400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>173900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>188300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>146400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>98500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-249700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-99300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>104900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>99700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>59600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>114300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>109000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>67900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>54900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>116100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>107700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>83500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>74300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E27" s="3">
         <v>153000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>158200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>146400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>173900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>188300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>146400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>98500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-249700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-99300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>104900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>99700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>59600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>114300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>109000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>67900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>54900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>116100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>107700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>83500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>74300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2295,8 +2352,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2375,8 +2435,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2455,8 +2518,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2535,168 +2601,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E33" s="3">
         <v>153000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>158200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>146400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>173900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>188300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>146400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>98500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-249700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-99300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>104900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>99700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>59600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>114300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>109000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>67900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>54900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>116100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>107700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>83500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>74300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2775,173 +2850,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E35" s="3">
         <v>153000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>158200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>146400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>173900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>188300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>146400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>98500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-249700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-99300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>104900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>99700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>59600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>114300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>109000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>67900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>54900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>116100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>107700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>83500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>74300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
         <v>44837</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44563</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44199</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2970,8 +3054,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3000,538 +3085,557 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E41" s="3">
         <v>69200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>179200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>389300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>310900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>536000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>505300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>465900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>505100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>50600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>81000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>46700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>51500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>52800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>47200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>46800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>58000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>38200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E42" s="3">
         <v>61100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>72200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>69400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>36800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>46600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>85800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>46000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>42900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>39800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>38800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>38400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>31300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>29900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>30600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>27200</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
-      </c>
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E43" s="3">
         <v>431500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>460800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>460700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>330000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>374700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>343200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>270200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>201100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>214500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>160800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>344600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>320900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>529900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>511900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>396600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>318800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>404000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>388000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>353500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>247300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>359600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>364600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>357900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>277700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1112500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>971000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>889500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>774400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>725400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>720700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>736400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>728000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>938600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1032700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1188200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1052100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1046500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1008500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1008300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>940000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>973900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>969700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>988600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>945700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>939400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>922700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>948200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>954900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E45" s="3">
         <v>55700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>49200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>37000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>34100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>72200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>69700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1730000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1634500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1653500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1447200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1607800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1461600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1657100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1544500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1436900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1711100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2103800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1514200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1701800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1644600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1561900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1382900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1526400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1486700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1461800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1307900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1411500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1395400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1436300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1340500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1100</v>
       </c>
       <c r="J47" s="3">
         <v>1100</v>
       </c>
       <c r="K47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L47" s="3">
         <v>1400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5400</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3542,8 +3646,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3560,168 +3664,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1193100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1137800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1120400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1091800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1077500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>966600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>941700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>938800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>956200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>994600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1011600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1061500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1068500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1076300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1068300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1046800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>990500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1016400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1017600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1024300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1035800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1038500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1052300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1068700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1076900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>501600</v>
+      </c>
+      <c r="E49" s="3">
         <v>566500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>583900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>587300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>590400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>484600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>488300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>492200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>496500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>502900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>507500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>511500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>611700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>612200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>614400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>616400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>620900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>623800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>627900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>622800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>628200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>632600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>634500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>637800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>556300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3800,8 +3913,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3880,88 +3996,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>16400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4040,88 +4162,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3440200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3440000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3355300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3349800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3136700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3075700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2910900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3109800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3020900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2956100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3251600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3694900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3211100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3398000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3337800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3239700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3004600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3175000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3141800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3117900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="X54" s="3">
-        <v>3090400</v>
       </c>
       <c r="Y54" s="3">
         <v>3090400</v>
       </c>
       <c r="Z54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>3152300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2990100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4150,8 +4278,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4180,138 +4309,142 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>462500</v>
+      </c>
+      <c r="E57" s="3">
         <v>490600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>499500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>436100</v>
       </c>
       <c r="G57" s="3">
         <v>436100</v>
       </c>
       <c r="H57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="I57" s="3">
         <v>462100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>388300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>320000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>326100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>323800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>297700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>291300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>395600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>377200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>351600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>299500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>332500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>288100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>285700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>255800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>269200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>245700</v>
       </c>
       <c r="Z57" s="3">
         <v>245700</v>
       </c>
       <c r="AA57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="AB57" s="3">
         <v>232500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E58" s="3">
         <v>163400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>14600</v>
       </c>
       <c r="F58" s="3">
         <v>14600</v>
       </c>
       <c r="G58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H58" s="3">
         <v>15300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13300</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4322,8 +4455,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4340,328 +4473,343 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>641700</v>
+      </c>
+      <c r="E60" s="3">
         <v>670500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>525000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>497200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>463600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>489400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>413100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>349200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>359600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>367300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>361300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>389100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>422400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>407600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>379500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>317600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>347000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>309100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>293800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>289000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>258500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>275100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>251300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>252900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>235900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>860200</v>
+      </c>
+      <c r="E61" s="3">
         <v>849500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>907000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>936300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>693800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>661100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>659700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1062900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1066600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1068100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1437600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1622500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>912000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>976300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1026700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>959200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>669000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>871000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>900000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>775000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>630000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>705000</v>
       </c>
       <c r="Y61" s="3">
         <v>705000</v>
       </c>
       <c r="Z61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>771000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>600000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E62" s="3">
         <v>61700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>60000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>36200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>52500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>41000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>38900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>36900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>34600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4740,8 +4888,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4820,8 +4971,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4900,88 +5054,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1558100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1581700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1492100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1492400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1217300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1186700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1107800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1445300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1462100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1480600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1841300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2052200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1376600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1435400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1456400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1324100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1068500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1227900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1238200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1106500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>929300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1021200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>995200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1060800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>870500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5010,8 +5170,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5090,8 +5251,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5170,8 +5334,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5250,8 +5417,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5330,88 +5500,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1590500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1567200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1537400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1518000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1604700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1605400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1571700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1455900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1359100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1282000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1225700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1475800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1628000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1755900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1678800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1703700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1740300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1731900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1689700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1807800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1853500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1876200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1898400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1878500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1903500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5490,8 +5666,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5570,8 +5749,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5650,88 +5832,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1882200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1858300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1863200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1857300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1919400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1889000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1803100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1664600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1558900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1475600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1410300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1642800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1834500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1962600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1881400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1915600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1936100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1947100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1903600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2011400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2051400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2069200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2095200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2091500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2119600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5810,173 +5998,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
         <v>44837</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44563</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44199</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E81" s="3">
         <v>153000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>158200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>146400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>173900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>188300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>146400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>98500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-249700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-99300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>104900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>99700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>59600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>114300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>109000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>67900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>54900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>116100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>107700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>83500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>74300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6005,88 +6202,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E83" s="3">
         <v>31100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38000</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>41400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>40400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>39200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>32600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6165,8 +6366,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6245,8 +6449,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6325,8 +6532,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6405,8 +6615,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6485,88 +6698,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E89" s="3">
         <v>65800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>209700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-51500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>154000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>242600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>291600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>181800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-209400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>262400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>124300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-105200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>274100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>151700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>130300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>199100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>168500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>179900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>65900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>170600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6595,88 +6814,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-160000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-37400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-53600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-28900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6755,8 +6978,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6835,88 +7061,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-202400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-53500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-33600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-117600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-35800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6945,29 +7177,30 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-29700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6978,55 +7211,58 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-30600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-27200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-27900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-20500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-21300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-21600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-18400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7105,8 +7341,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7185,8 +7424,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7265,244 +7507,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-206200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-161500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-153300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-433500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-370600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-216500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>677900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-233100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-81600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>163300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-256300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-107900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-107400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>38300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-159500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-136300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-164700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>71200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-156500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>400</v>
       </c>
       <c r="Z101" s="3">
         <v>400</v>
       </c>
       <c r="AA101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-210100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>78500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-225200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>272300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-233000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>441000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,363 +665,375 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44837</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44563</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44199</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>702900</v>
+      </c>
+      <c r="E8" s="3">
         <v>720000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>850000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>895600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>774900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>784300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>801600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>747200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>589600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>690200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>602300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>459100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>658700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>739700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>801600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>623900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>742700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>754400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>764200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>647300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>653700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>716400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>715400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>665400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>587900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>518500</v>
+      </c>
+      <c r="E9" s="3">
         <v>510800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>597800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>630600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>534700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>552100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>549800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>519500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>425200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>544200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>466800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>378200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>352600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>540500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>536900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>578800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>463200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>547400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>535500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>548300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>471500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>476700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>494200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>502100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>476600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>431000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E10" s="3">
         <v>209200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>252200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>265000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>240200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>232200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>251800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>227700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>164400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>146000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>135500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-148500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>106500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>118200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>202800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>222800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>160700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>195300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>218900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>215900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>175800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>177000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>222200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>213300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>188800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>156900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1051,8 +1063,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1134,8 +1147,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,91 +1233,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3">
         <v>40800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-25400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-30200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-11700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-22800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>124900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1383,8 +1405,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1411,174 +1436,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>574900</v>
+      </c>
+      <c r="E17" s="3">
         <v>627400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>675400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>721600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>612700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>607200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>587500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>475700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>611300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>533600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>465800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>551400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>634400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>621800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>687500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>591200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>664500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>626700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>643200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>570900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>591700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>591500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>594300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>572400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>518000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E18" s="3">
         <v>92600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>174600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>174000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>162200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>177100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>201400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>159700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-236100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-92300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>117900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>114100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>78200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>127700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>121000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>62000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>124900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>121100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>93000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>69900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1608,423 +1640,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E21" s="3">
         <v>118000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>193200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>204500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>234200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>193100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>145700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>113000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>99000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-198700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-62000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>114500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>203900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>119500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>117000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>101600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>163600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>159800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>131200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>100500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>4500</v>
       </c>
       <c r="X22" s="3">
         <v>4500</v>
       </c>
       <c r="Y22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>4300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E23" s="3">
         <v>79300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>165300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>166600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>155200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>172400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>196000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>153100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-252200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>108000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>69500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>118500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>113000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>71100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>56100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>118900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>113500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>88300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>64000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2106,174 +2154,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E26" s="3">
         <v>83900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>153000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>158200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>146400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>173900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>188300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>146400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-249700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-99300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>99700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>114300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>109000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>67900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>54900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>116100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>107700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>83500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>74300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E27" s="3">
         <v>83900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>153000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>158200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>146400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>173900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>188300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>146400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>98500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-249700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-99300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>104900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>99700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>59600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>114300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>109000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>67900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>54900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>116100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>107700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>83500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>74300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2355,8 +2412,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2438,8 +2498,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2521,8 +2584,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2604,174 +2670,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E33" s="3">
         <v>83900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>153000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>158200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>146400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>173900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>188300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>146400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>98500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-249700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-99300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>104900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>99700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>59600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>114300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>109000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>67900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>54900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>116100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>107700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>83500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>74300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2853,179 +2928,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E35" s="3">
         <v>83900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>153000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>158200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>173900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>188300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>146400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>98500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-249700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-99300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>104900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>99700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>59600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>114300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>109000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>67900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>54900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>116100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>107700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>83500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>74300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44837</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44563</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44199</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3055,8 +3139,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3086,559 +3171,578 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E41" s="3">
         <v>150400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>179200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>389300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>310900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>536000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>505300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>232900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>465900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>505100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>50600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>81000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>46700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>41400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>51500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>52800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>47200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>46800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>58000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>38200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E42" s="3">
         <v>48300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>61100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>69400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>36800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>46600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>85800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>46000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>40200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>42900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>39800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>38800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>31300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>29900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>30600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>27200</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
-      </c>
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>399100</v>
+      </c>
+      <c r="E43" s="3">
         <v>248800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>431500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>460800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>460700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>330000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>374700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>343200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>270200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>201100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>214500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>160800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>344600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>320900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>529900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>511900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>396600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>318800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>404000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>388000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>353500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>247300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>359600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>364600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>357900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>277700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1314800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1225900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1112500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>971000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>889500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>774400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>725400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>720700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>736400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>728000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>938600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1032700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1188200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1052100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1046500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1008500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1008300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>940000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>973900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>969700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>988600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>945700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>939400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>922700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>948200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>954900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E45" s="3">
         <v>53500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>112400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>57700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>49200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>37000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>34600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>34100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>72200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>69700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1890100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1727000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1730000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1634500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1653500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1447200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1607800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1461600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1657100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1544500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1436900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1711100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2103800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1514200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1701800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1644600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1561900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1382900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1526400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1486700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1461800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1307900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1411500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1395400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1436300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1340500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
+        <v>300</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1100</v>
       </c>
       <c r="K47" s="3">
         <v>1100</v>
       </c>
       <c r="L47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5400</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3649,8 +3753,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3667,174 +3771,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1222200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1193100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1137800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1120400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1091800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1077500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>966600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>941700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>938800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>956200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>994600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1011600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1061500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1068500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1076300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1068300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1046800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>990500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1016400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1017600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1024300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1035800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1038500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1052300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1068700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1076900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E49" s="3">
         <v>501600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>566500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>583900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>587300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>590400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>484600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>488300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>492200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>496500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>502900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>507500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>511500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>611700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>612200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>614400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>616400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>620900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>623800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>627900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>622800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>628200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>632600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>634500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>637800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>556300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3916,8 +4029,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3999,91 +4115,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>16400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4165,91 +4287,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3629100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3440200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3440000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3355300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3349800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3136700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3075700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2910900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3109800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3020900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2956100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3251600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3694900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3211100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3398000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3337800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3239700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3004600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3175000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3141800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3117900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>3090400</v>
       </c>
       <c r="Z54" s="3">
         <v>3090400</v>
       </c>
       <c r="AA54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>3152300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2990100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4279,8 +4407,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4310,144 +4439,148 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E57" s="3">
         <v>462500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>490600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>499500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>436100</v>
       </c>
       <c r="H57" s="3">
         <v>436100</v>
       </c>
       <c r="I57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="J57" s="3">
         <v>462100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>388300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>320000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>326100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>323800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>297700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>291300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>395600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>377200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>351600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>299500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>332500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>288100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>285700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>255800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>269200</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>245700</v>
       </c>
       <c r="AA57" s="3">
         <v>245700</v>
       </c>
       <c r="AB57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="AC57" s="3">
         <v>232500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E58" s="3">
         <v>163800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>163400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>14600</v>
       </c>
       <c r="G58" s="3">
         <v>14600</v>
       </c>
       <c r="H58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13300</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4458,8 +4591,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4476,340 +4609,355 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E59" s="3">
         <v>15300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>614300</v>
+      </c>
+      <c r="E60" s="3">
         <v>641700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>670500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>525000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>497200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>463600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>489400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>413100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>349200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>359600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>367300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>361300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>389100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>422400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>407600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>379500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>317600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>347000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>309100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>293800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>289000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>258500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>275100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>251300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>252900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>235900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1062100</v>
+      </c>
+      <c r="E61" s="3">
         <v>860200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>849500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>907000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>936300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>693800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>661100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>659700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1062900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1066600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1068100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1437600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1622500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>912000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>976300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1026700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>959200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>669000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>871000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>900000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>775000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>630000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>705000</v>
       </c>
       <c r="Z61" s="3">
         <v>705000</v>
       </c>
       <c r="AA61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>771000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>600000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E62" s="3">
         <v>56200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>60000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>59900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>51600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>52500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>44400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>42500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>41000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>38900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>36900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>34600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4891,8 +5039,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4974,8 +5125,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5057,91 +5211,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1729200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1558100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1581700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1492100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1492400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1217300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1186700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1107800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1445300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1462100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1480600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1841300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2052200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1376600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1435400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1456400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1324100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1068500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1227900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1238200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1106500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>929300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1021200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>995200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1060800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>870500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5171,8 +5331,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5254,8 +5415,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5337,8 +5501,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5420,8 +5587,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5503,91 +5673,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1604700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1590500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1567200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1537400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1518000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1604700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1605400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1571700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1455900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1359100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1282000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1225700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1475800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1628000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1755900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1678800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1703700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1740300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1731900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1689700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1807800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1853500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1876200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1898400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1878500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1903500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5669,8 +5845,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5752,8 +5931,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5835,91 +6017,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1899900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1882200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1858300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1863200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1857300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1919400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1889000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1803100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1664600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1558900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1475600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1410300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1642800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1834500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1962600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1881400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1915600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1936100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1947100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1903600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2011400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2051400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2069200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2095200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2091500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2119600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6001,179 +6189,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44837</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44563</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44199</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E81" s="3">
         <v>83900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>153000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>158200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>146400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>173900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>188300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>146400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>98500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-249700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-99300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>104900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>99700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>59600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>114300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>109000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>67900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>54900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>116100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>107700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>83500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>74300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6203,91 +6400,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E83" s="3">
         <v>28000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>38000</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3">
         <v>41400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>40400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>39200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>32600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6369,8 +6570,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6452,8 +6656,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6535,8 +6742,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6618,8 +6828,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6701,91 +6914,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-179400</v>
+      </c>
+      <c r="E89" s="3">
         <v>189400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>65800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>209700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-51500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>154000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>242600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>291600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>181800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-209400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>262400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>124300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-105200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>274100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>151700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>130300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-17600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>199100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>168500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>179900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>65900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>170600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6815,91 +7034,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79100</v>
+        <v>-73900</v>
       </c>
       <c r="E91" s="3">
-        <v>-160000</v>
+        <v>-80500</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-79800</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-50300</v>
       </c>
       <c r="H91" s="3">
-        <v>-37400</v>
+        <v>-34000</v>
       </c>
       <c r="I91" s="3">
-        <v>-49600</v>
+        <v>-38400</v>
       </c>
       <c r="J91" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-27700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-53600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-28900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6981,8 +7204,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7064,91 +7290,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-202400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-53500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-33600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-117600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-35800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7178,32 +7410,33 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-30600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-29700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7214,55 +7447,58 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-30600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-27800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-27900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-21300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-21600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-18400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7344,8 +7580,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7427,8 +7666,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7510,253 +7752,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-206200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-161500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-153300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-433500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-370600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-216500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>677900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-233100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-81600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>163300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-256300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-107900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-107400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>38300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-159500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-136300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-164700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>71200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-156500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>400</v>
       </c>
       <c r="AA101" s="3">
         <v>400</v>
       </c>
       <c r="AB101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="E102" s="3">
         <v>81200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-57700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-210100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>78500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-225200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>272300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-233000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>441000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>34300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>19900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,375 +665,387 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44837</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44563</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44199</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42736</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>840400</v>
+      </c>
+      <c r="E8" s="3">
         <v>702900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>720000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>850000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>895600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>774900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>784300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>801600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>747200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>589600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>690200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>602300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>459100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>658700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>739700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>801600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>623900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>742700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>754400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>764200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>647300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>653700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>716400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>715400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>665400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>587900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>623600</v>
+      </c>
+      <c r="E9" s="3">
         <v>518500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>510800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>597800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>630600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>534700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>552100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>549800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>519500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>425200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>544200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>466800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>378200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>540500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>536900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>578800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>463200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>547400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>535500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>548300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>471500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>476700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>494200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>502100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>476600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>431000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>216800</v>
+      </c>
+      <c r="E10" s="3">
         <v>184400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>209200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>252200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>265000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>240200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>232200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>251800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>164400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>146000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>135500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-148500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>106500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>118200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>202800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>222800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>160700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>195300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>218900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>215900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>175800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>177000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>222200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>213300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>188800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>156900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1064,8 +1076,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1150,8 +1163,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1236,94 +1252,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>40800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-25400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-30200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-11700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-22800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>124900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>6600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1408,8 +1430,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1437,180 +1462,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>657700</v>
+      </c>
+      <c r="E17" s="3">
         <v>574900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>627400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>675400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>721600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>612700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>607200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>587500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>475700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>611300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>533600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>465800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>551400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>634400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>621800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>687500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>591200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>664500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>626700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>643200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>570900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>591700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>591500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>594300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>572400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>518000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E18" s="3">
         <v>128000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>174600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>174000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>162200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>177100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>201400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>159700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>113900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-236100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-92300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>117900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>114100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>78200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>127700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>121000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>62000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>124900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>121100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>93000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>69900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1641,438 +1673,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E21" s="3">
         <v>151100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>118000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>193200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>204500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>234200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>193100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>145700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>113000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>99000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-198700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>71400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>114500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>203900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>119500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>117000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>101600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>163600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>159800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>131200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>100500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E22" s="3">
         <v>12100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>4500</v>
       </c>
       <c r="Y22" s="3">
         <v>4500</v>
       </c>
       <c r="Z22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AA22" s="3">
         <v>4300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E23" s="3">
         <v>111000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>79300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>165300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>166600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>155200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>172400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>196000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>153100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>103000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-252200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>108000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>103500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>69500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>118500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>113000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>71100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>56100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>118900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>113500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>88300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>64000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>13400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-17800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2157,180 +2205,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E26" s="3">
         <v>97600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>83900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>153000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>158200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>146400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>173900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>188300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>146400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-249700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>104900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>99700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>59600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>114300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>109000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>67900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>54900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>116100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>107700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>83500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>74300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E27" s="3">
         <v>97600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>153000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>158200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>146400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>173900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>188300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-249700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>104900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>99700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>59600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>114300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>109000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>67900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>54900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>116100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>107700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>83500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>74300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2415,8 +2472,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2501,8 +2561,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2587,8 +2650,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2673,180 +2739,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E33" s="3">
         <v>97600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>153000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>158200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>146400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>173900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>188300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-249700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>104900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>99700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>59600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>109000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>67900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>54900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>116100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>107700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>83500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>74300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2931,185 +3006,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E35" s="3">
         <v>97600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>153000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>158200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>146400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>173900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>188300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-249700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>104900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>99700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>59600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>109000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>67900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>54900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>116100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>107700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>83500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>74300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44837</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44563</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44199</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42736</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3140,8 +3224,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3172,580 +3257,599 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E41" s="3">
         <v>73800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>150400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>179200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>389300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>310900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>536000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>505300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>232900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>465900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>505100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>81000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>46700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>41400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>51500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>52800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>47200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>46800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>58000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>38200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E42" s="3">
         <v>52500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>48300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>61100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>69400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>36800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>85800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>46000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>40900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>40200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>42900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>39800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>38400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>31300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>29900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>30600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>27200</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC42" s="3">
-        <v>0</v>
-      </c>
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>527300</v>
+      </c>
+      <c r="E43" s="3">
         <v>399100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>248800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>431500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>460800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>460700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>330000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>374700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>343200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>270200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>201100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>214500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>160800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>344600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>320900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>529900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>511900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>396600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>318800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>404000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>388000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>353500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>247300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>359600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>364600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>357900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>277700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1226700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1314800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1225900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1112500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>971000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>889500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>774400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>725400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>720700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>736400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>728000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>938600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1032700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1188200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1052100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1046500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1008500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1008300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>940000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>973900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>969700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>988600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>945700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>939400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>922700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>948200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>954900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E45" s="3">
         <v>50000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>112400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>37600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>57700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>49200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>37000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>32100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>34600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>34100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>72200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>69700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1919900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1890100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1727000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1730000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1634500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1653500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1447200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1607800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1461600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1657100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1544500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1436900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1711100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2103800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1514200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1701800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1644600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1561900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1382900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1526400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1486700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1461800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1307900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1411500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1395400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1436300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1340500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1100</v>
       </c>
       <c r="L47" s="3">
         <v>1100</v>
       </c>
       <c r="M47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5400</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3756,8 +3860,8 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3774,180 +3878,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1239600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1222200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1193100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1137800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1120400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1091800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1077500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>966600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>941700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>938800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>956200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>994600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1011600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1061500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1068500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1076300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1068300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1046800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>990500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1016400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1017600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1024300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1035800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1038500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1052300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1068700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1076900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>497300</v>
+      </c>
+      <c r="E49" s="3">
         <v>499000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>501600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>566500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>583900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>587300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>590400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>484600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>488300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>492200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>496500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>502900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>507500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>511500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>611700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>612200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>614400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>616400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>620900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>623800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>627900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>622800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>628200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>632600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>634500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>637800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>556300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4032,8 +4145,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4118,94 +4234,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E52" s="3">
         <v>17700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>16400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4290,94 +4412,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3671800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3629100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3440200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3440000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3355300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3349800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3136700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3075700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2910900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3109800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3020900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2956100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3251600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3694900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3211100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3398000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3337800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3239700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3004600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3175000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3141800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3117900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>3090400</v>
       </c>
       <c r="AA54" s="3">
         <v>3090400</v>
       </c>
       <c r="AB54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="AC54" s="3">
         <v>3152300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2990100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4408,8 +4536,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4440,150 +4569,154 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>411700</v>
+      </c>
+      <c r="E57" s="3">
         <v>401000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>462500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>490600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>499500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>436100</v>
       </c>
       <c r="I57" s="3">
         <v>436100</v>
       </c>
       <c r="J57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="K57" s="3">
         <v>462100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>388300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>320000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>326100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>323800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>297700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>291300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>395600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>377200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>351600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>299500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>332500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>288100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>285700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>255800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>269200</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>245700</v>
       </c>
       <c r="AB57" s="3">
         <v>245700</v>
       </c>
       <c r="AC57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="AD57" s="3">
         <v>232500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E58" s="3">
         <v>165400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>163800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>163400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>14600</v>
       </c>
       <c r="H58" s="3">
         <v>14600</v>
       </c>
       <c r="I58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J58" s="3">
         <v>15300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13300</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4594,8 +4727,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4612,352 +4745,367 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E59" s="3">
         <v>47900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E60" s="3">
         <v>614300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>641700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>670500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>525000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>497200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>463600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>489400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>413100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>349200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>359600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>367300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>361300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>389100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>422400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>407600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>379500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>317600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>347000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>309100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>293800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>289000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>258500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>275100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>251300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>252900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>235900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1074100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1062100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>860200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>849500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>907000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>936300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>693800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>661100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>659700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1062900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1066600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1068100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1437600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1622500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>912000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>976300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1026700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>959200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>669000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>871000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>900000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>775000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>630000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>705000</v>
       </c>
       <c r="AA61" s="3">
         <v>705000</v>
       </c>
       <c r="AB61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="AC61" s="3">
         <v>771000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>600000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E62" s="3">
         <v>52800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>60000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>59900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>51600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>52500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>44400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>40900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>41000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>38900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>36900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>34600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5042,8 +5190,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5128,8 +5279,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5214,94 +5368,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1718100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1729200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1558100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1581700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1492100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1492400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1217300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1186700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1107800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1445300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1462100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1480600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1841300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2052200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1376600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1435400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1456400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1324100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1068500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1227900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1238200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1106500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>929300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1021200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>995200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1060800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>870500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5332,8 +5492,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5418,8 +5579,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5504,8 +5668,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5590,8 +5757,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5676,94 +5846,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1650300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1604700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1590500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1567200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1537400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1518000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1604700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1605400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1571700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1455900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1359100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1282000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1225700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1475800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1628000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1755900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1678800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1703700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1740300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1731900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1689700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1807800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1853500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1876200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1898400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1878500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1903500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5848,8 +6024,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5934,8 +6113,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6020,94 +6202,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1953800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1899900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1882200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1858300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1863200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1857300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1919400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1889000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1803100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1664600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1558900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1475600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1410300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1642800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1834500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1962600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1881400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1915600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1936100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1947100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1903600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2011400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2051400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2069200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2095200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2091500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2119600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6192,185 +6380,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44837</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44563</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44199</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42736</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E81" s="3">
         <v>97600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>153000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>158200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>146400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>173900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>188300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-249700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>104900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>99700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>59600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>109000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>67900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>54900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>116100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>107700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>83500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>74300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6401,94 +6598,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E83" s="3">
         <v>27900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>38000</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>41400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>39200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>32600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6573,8 +6774,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6659,8 +6863,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6745,8 +6952,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6831,8 +7041,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6917,94 +7130,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-179400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>189400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>65800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>209700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-51500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>154000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>242600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>291600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>151000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>181800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-209400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>262400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>124300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-105200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>274100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>151700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>130300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>199100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>168500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>179900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>65900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>170600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7035,94 +7254,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-80500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-50200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-53600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-24700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-28900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7207,8 +7430,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7293,94 +7519,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-202400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-53500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-23900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-33300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-22500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-33600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-117600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-35800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7411,8 +7643,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7420,26 +7653,26 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-30500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-30600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-29700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7450,55 +7683,58 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-30600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-27200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-27500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-27800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-27900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-21300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-21600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-18400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7583,8 +7819,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7669,8 +7908,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7755,262 +7997,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-131200</v>
+      </c>
+      <c r="E100" s="3">
         <v>125300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-206200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-161500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-153300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-433500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-370600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-216500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>677900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-233100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-81600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>163300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-256300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-107900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-107400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>38300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-159500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-136300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-164700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>71200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-156500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>400</v>
       </c>
       <c r="AB101" s="3">
         <v>400</v>
       </c>
       <c r="AC101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-76600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>81200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-57700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-210100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>78500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-225200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>272300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-233000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>441000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>19900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>5900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>GIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,387 +665,399 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44837</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44563</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44199</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>869900</v>
+      </c>
+      <c r="E8" s="3">
         <v>840400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>702900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>720000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>850000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>895600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>774900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>784300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>801600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>747200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>589600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>690200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>602300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>229700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>459100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>658700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>739700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>801600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>623900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>742700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>754400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>764200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>647300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>653700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>716400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>715400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>665400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>587900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>715000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>630700</v>
+      </c>
+      <c r="E9" s="3">
         <v>623600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>518500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>510800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>597800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>630600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>534700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>552100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>549800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>519500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>425200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>544200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>466800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>378200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>352600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>540500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>536900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>578800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>463200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>547400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>535500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>548300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>471500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>476700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>494200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>502100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>476600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>431000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E10" s="3">
         <v>216800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>184400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>209200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>252200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>265000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>240200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>232200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>251800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>164400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>146000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>135500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-148500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>118200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>202800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>222800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>160700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>195300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>218900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>215900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>175800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>177000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>222200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>213300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>188800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>156900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>217400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1077,8 +1089,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1166,8 +1179,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1255,97 +1271,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-44000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>40800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-25400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-30200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-11700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-22800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>124900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>11000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>6600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>200</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,8 +1455,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1463,186 +1488,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>714900</v>
+      </c>
+      <c r="E17" s="3">
         <v>657700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>574900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>627400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>675400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>721600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>612700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>607200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>587500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>475700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>611300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>533600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>465800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>551400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>634400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>621800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>687500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>591200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>664500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>626700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>643200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>570900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>591700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>591500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>594300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>572400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>518000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>586400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E18" s="3">
         <v>182700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>128000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>174600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>174000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>162200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>177100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>201400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>159700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-236100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-92300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>114100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>78200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>127700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>121000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>62000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>124900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>121100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>93000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>69900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>128600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1674,453 +1706,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E21" s="3">
         <v>209100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>151100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>118000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>204600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>193200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>204500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>234200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>193100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>113000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>99000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-198700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-62000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>155800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>71400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>114500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>203900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>119500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>117000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>101600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>163600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>159800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>131200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>100500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>160100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E22" s="3">
         <v>15600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>4500</v>
       </c>
       <c r="Z22" s="3">
         <v>4500</v>
       </c>
       <c r="AA22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AB22" s="3">
         <v>4300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E23" s="3">
         <v>162000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>79300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>165300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>166600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>155200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>172400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>196000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>153100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>103000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-252200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>108000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>103500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>69500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>118500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>113000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>71100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>56100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>118900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>113500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>88300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>64000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>122700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="3">
         <v>6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-17800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-10300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2208,186 +2256,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E26" s="3">
         <v>155300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>97600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>83900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>153000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>158200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>146400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>173900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>188300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-249700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-99300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>104900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>99700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>59600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>114300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>109000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>67900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>54900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>116100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>107700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>83500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>74300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E27" s="3">
         <v>155300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>97600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>153000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>158200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>146400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>173900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>188300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>98500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>56400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-249700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-99300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>104900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>99700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>59600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>114300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>109000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>67900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>54900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>116100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>107700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>83500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>74300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2475,8 +2532,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2564,8 +2624,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2653,8 +2716,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2742,186 +2808,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E33" s="3">
         <v>155300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>97600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>153000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>158200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>146400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>173900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>188300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-249700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-99300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>104900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>99700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>59600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>109000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>67900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>54900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>116100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>107700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>83500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>74300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3009,191 +3084,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E35" s="3">
         <v>155300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>97600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>153000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>158200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>146400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>173900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>188300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-249700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-99300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>104900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>99700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>59600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>109000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>67900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>54900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>116100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>107700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>83500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>74300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44837</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44563</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44199</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3225,8 +3309,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3258,601 +3343,620 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E41" s="3">
         <v>68600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>150400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>73700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>179200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>389300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>310900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>536000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>505300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>232900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>465900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>505100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>64100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>55800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>50600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>81000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>46700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>52000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>41400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>51500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>52800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>47200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>46800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>58000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>38200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>60400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E42" s="3">
         <v>54800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>52500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>48300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>61100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>69400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>85800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>46000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>40900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>40200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>42900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>39800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>38800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>38400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>31300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>29900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>30600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>27200</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD42" s="3">
-        <v>0</v>
-      </c>
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E43" s="3">
         <v>527300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>399100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>248800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>431500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>460800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>460700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>330000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>343200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>270200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>201100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>214500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>160800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>344600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>320900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>529900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>511900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>396600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>318800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>404000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>388000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>353500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>247300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>359600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>364600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>357900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>277700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>404300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1138200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1226700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1314800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1225900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1112500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>971000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>889500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>774400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>725400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>720700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>736400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>728000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>938600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1032700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1188200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1052100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1046500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1008500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1008300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>940000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>973900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>969700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>988600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>945700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>939400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>922700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>948200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>954900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>938300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E45" s="3">
         <v>42500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>53500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>93700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>37600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>57700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>49200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>37000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>34600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>34100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>72200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>69700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>73300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1807500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1919900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1890100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1727000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1730000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1634500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1653500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1447200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1607800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1461600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1657100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1544500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1436900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1711100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2103800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1514200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1701800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1644600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1561900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1382900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1526400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1486700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1461800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1307900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1411500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1395400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1436300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1340500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E47" s="3">
         <v>7500</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
       </c>
       <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1100</v>
       </c>
       <c r="M47" s="3">
         <v>1100</v>
       </c>
       <c r="N47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O47" s="3">
         <v>1400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5400</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3863,8 +3967,8 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3881,186 +3985,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1255400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1239600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1222200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1193100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1137800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1120400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1091800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1077500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>966600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>941700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>938800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>956200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>994600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1011600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1061500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1068500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1076300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1068300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1046800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>990500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1016400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1017600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1024300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1035800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1038500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1052300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1068700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1076900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>494700</v>
+      </c>
+      <c r="E49" s="3">
         <v>497300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>499000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>501600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>566500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>583900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>587300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>590400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>484600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>488300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>492200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>496500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>502900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>507500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>511500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>611700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>612200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>614400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>616400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>620900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>623800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>627900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>622800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>628200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>632600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>634500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>637800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>556300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>554500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4148,8 +4261,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4237,97 +4353,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>16400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4415,97 +4537,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3572300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3671800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3629100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3440200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3440000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3355300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3349800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3136700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3075700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2910900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3109800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3020900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2956100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3251600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3694900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3211100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3398000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3337800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3239700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3004600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3175000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3141800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3117900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2980700</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>3090400</v>
       </c>
       <c r="AB54" s="3">
         <v>3090400</v>
       </c>
       <c r="AC54" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="AD54" s="3">
         <v>3152300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2990100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3120200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4537,8 +4665,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4570,156 +4699,160 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400900</v>
+      </c>
+      <c r="E57" s="3">
         <v>411700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>401000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>462500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>490600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>499500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>436100</v>
       </c>
       <c r="J57" s="3">
         <v>436100</v>
       </c>
       <c r="K57" s="3">
+        <v>436100</v>
+      </c>
+      <c r="L57" s="3">
         <v>462100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>388300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>320000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>326100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>323800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>297700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>291300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>395600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>377200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>351600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>299500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>332500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>288100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>285700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>255800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>269200</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>245700</v>
       </c>
       <c r="AC57" s="3">
         <v>245700</v>
       </c>
       <c r="AD57" s="3">
+        <v>245700</v>
+      </c>
+      <c r="AE57" s="3">
         <v>232500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E58" s="3">
         <v>164400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>165400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>163800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>163400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>14600</v>
       </c>
       <c r="I58" s="3">
         <v>14600</v>
       </c>
       <c r="J58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K58" s="3">
         <v>15300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13300</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4730,8 +4863,8 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4748,364 +4881,379 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>20000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>722800</v>
+      </c>
+      <c r="E60" s="3">
         <v>596200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>614300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>641700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>670500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>525000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>497200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>463600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>489400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>413100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>349200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>359600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>367300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>361300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>389100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>422400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>407600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>379500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>317600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>347000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>309100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>293800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>289000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>258500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>275100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>251300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>252900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>235900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>302300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>805400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1074100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1062100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>860200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>849500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>907000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>936300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>693800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>661100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>659700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1062900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1066600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1068100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1437600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1622500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>912000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>976300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1026700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>959200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>669000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>871000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>900000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>775000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>630000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>705000</v>
       </c>
       <c r="AB61" s="3">
         <v>705000</v>
       </c>
       <c r="AC61" s="3">
+        <v>705000</v>
+      </c>
+      <c r="AD61" s="3">
         <v>771000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>600000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>691000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E62" s="3">
         <v>47800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>60000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>59900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>51600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>52500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>47800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>44400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>40900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>41000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>38900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>36900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>34600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5193,8 +5341,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5282,8 +5433,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5371,97 +5525,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1579300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1718100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1729200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1558100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1581700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1492100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1492400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1217300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1186700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1107800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1445300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1462100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1480600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1841300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2052200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1376600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1435400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1456400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1324100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1068500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1227900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1238200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1106500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>929300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1021200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>995200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1060800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>870500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1028100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5493,8 +5653,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5582,8 +5743,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5671,8 +5835,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5760,8 +5927,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5849,97 +6019,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1667900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1650300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1604700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1590500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1567200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1537400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1518000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1604700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1605400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1571700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1455900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1359100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1282000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1225700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1475800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1628000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1755900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1678800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1703700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1740300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1731900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1689700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1807800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1853500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1876200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1898400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1878500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1903500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1894700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6027,8 +6203,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6116,8 +6295,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6205,97 +6387,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1953800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1899900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1882200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1858300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1863200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1857300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1919400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1889000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1803100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1664600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1558900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1475600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1410300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1642800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1834500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1962600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1881400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1915600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1936100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1947100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1903600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2011400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2051400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2069200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2095200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2091500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2119600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2092100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6383,191 +6571,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44837</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44563</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44199</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E81" s="3">
         <v>155300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>97600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>153000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>158200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>146400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>173900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>188300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-249700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-99300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>104900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>99700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>59600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>109000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>67900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>54900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>116100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>107700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>83500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>74300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>114400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6599,97 +6796,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E83" s="3">
         <v>31600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>38000</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
         <v>41400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>40400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>41500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>39200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>32600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6777,8 +6978,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6866,8 +7070,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6955,8 +7162,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7044,8 +7254,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7133,97 +7346,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E89" s="3">
         <v>181800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-179400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>189400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>65800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>209700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-51500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>154000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>242600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>291600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>151000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>181800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-209400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>262400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>124300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-105200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>274100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>151700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>130300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-17600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>199100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>168500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>179900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>65900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>170600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7255,97 +7474,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-53600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-24700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-28900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7433,8 +7656,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7522,97 +7748,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-202400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-37000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-53500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-33300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-22500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-33600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-117600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-35800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7644,38 +7876,39 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-32700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-30500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-30600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-29700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7686,55 +7919,58 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-27200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-27500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-27800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-27900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-21300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-21600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-18400</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7822,8 +8058,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7911,8 +8150,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8000,271 +8242,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-230500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-131200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>125300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-206200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-161500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-153300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-433500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-370600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-216500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>677900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-233100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-81600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>163300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-256300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-107900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-107400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>38300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-159500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-136300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-164700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>71200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-156500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-131500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>400</v>
       </c>
       <c r="AC101" s="3">
         <v>400</v>
       </c>
       <c r="AD101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-76600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>81200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-47900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-210100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>78500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-225200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>272300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-233000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>441000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-30400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>19900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-22200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>5900</v>
       </c>
     </row>
